--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_17_39.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_17_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2541783.665510527</v>
+        <v>2541047.388803614</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1601811.019238877</v>
+        <v>1601811.019238876</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681858</v>
+        <v>590120.9651681862</v>
       </c>
     </row>
     <row r="9">
@@ -1382,13 +1382,13 @@
         <v>285.1065283636207</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1409409833357</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>210.5646596909947</v>
+        <v>125.407325318054</v>
       </c>
       <c r="I11" t="n">
-        <v>62.73949387512457</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.33114065923331</v>
+        <v>71.68024160140133</v>
       </c>
       <c r="T11" t="n">
         <v>98.47307515310014</v>
@@ -1427,10 +1427,10 @@
         <v>129.2483093153382</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.3458864055992</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>228.3427818836344</v>
       </c>
       <c r="X11" t="n">
         <v>248.6742640142492</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.46333498243969</v>
+        <v>43.18479049342464</v>
       </c>
       <c r="C12" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>23.92508845772538</v>
       </c>
       <c r="E12" t="n">
-        <v>33.84609859025365</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>137.4022199968253</v>
       </c>
       <c r="G12" t="n">
-        <v>135.7415135932285</v>
+        <v>13.55417847630834</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.80477854118097</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>163.7292228923487</v>
       </c>
       <c r="T12" t="n">
-        <v>197.2470968808262</v>
+        <v>75.05976176390605</v>
       </c>
       <c r="U12" t="n">
         <v>102.4513092784512</v>
@@ -1509,13 +1509,13 @@
         <v>109.7213959227349</v>
       </c>
       <c r="W12" t="n">
-        <v>127.8020116330799</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>82.27429449155808</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.48381630166584</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1540,13 +1540,13 @@
         <v>23.97168629288431</v>
       </c>
       <c r="G13" t="n">
-        <v>45.46608883664569</v>
+        <v>45.46608883664568</v>
       </c>
       <c r="H13" t="n">
-        <v>37.34701555510333</v>
+        <v>37.34701555510331</v>
       </c>
       <c r="I13" t="n">
-        <v>24.46908674956001</v>
+        <v>24.46908674956002</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.58497642579221</v>
+        <v>40.58497642579219</v>
       </c>
       <c r="S13" t="n">
         <v>96.05436038967157</v>
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>244.7977605620224</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.4173976376782</v>
+        <v>137.2097001155552</v>
       </c>
       <c r="E14" t="n">
         <v>260.9307006383672</v>
       </c>
       <c r="F14" t="n">
-        <v>285.1065283636206</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>230.0372533808342</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>210.5646596909946</v>
       </c>
       <c r="I14" t="n">
-        <v>62.73949387512455</v>
+        <v>62.73949387512454</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.68024160140131</v>
+        <v>71.68024160140129</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>98.47307515310011</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.2483093153382</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>206.3458864055991</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.3427818836344</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>248.6742640142492</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.4997366343156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.18479049342461</v>
+        <v>82.06303392409168</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>48.83824881048078</v>
       </c>
       <c r="D15" t="n">
-        <v>146.1124235746456</v>
+        <v>23.92508845772535</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>33.84609859025362</v>
       </c>
       <c r="F15" t="n">
         <v>21.31889696662908</v>
       </c>
       <c r="G15" t="n">
-        <v>135.7415135932285</v>
+        <v>13.55417847630831</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1737,19 +1737,19 @@
         <v>163.7292228923487</v>
       </c>
       <c r="T15" t="n">
-        <v>75.05976176390602</v>
+        <v>197.2470968808262</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4513092784511</v>
+        <v>224.6386443953714</v>
       </c>
       <c r="V15" t="n">
-        <v>148.5996393534019</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>82.27429449155805</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
         <v>81.48381630166581</v>
@@ -1777,13 +1777,13 @@
         <v>23.97168629288429</v>
       </c>
       <c r="G16" t="n">
-        <v>45.46608883664565</v>
+        <v>45.46608883664566</v>
       </c>
       <c r="H16" t="n">
-        <v>37.34701555510328</v>
+        <v>37.3470155551033</v>
       </c>
       <c r="I16" t="n">
-        <v>24.46908674955999</v>
+        <v>24.46908674955998</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58497642579216</v>
+        <v>40.58497642579217</v>
       </c>
       <c r="S16" t="n">
         <v>96.05436038967154</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>160.4966641819526</v>
+        <v>160.4966641819527</v>
       </c>
       <c r="C17" t="n">
-        <v>143.7653498695002</v>
+        <v>143.7653498695003</v>
       </c>
       <c r="D17" t="n">
-        <v>133.384986945156</v>
+        <v>133.3849869451561</v>
       </c>
       <c r="E17" t="n">
-        <v>159.8982899458451</v>
+        <v>159.8982899458449</v>
       </c>
       <c r="F17" t="n">
-        <v>184.0741176710984</v>
+        <v>184.0741176710985</v>
       </c>
       <c r="G17" t="n">
-        <v>191.1085302908134</v>
+        <v>191.1085302908135</v>
       </c>
       <c r="H17" t="n">
         <v>109.5322489984725</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>28.21589862281601</v>
+        <v>28.21589862281609</v>
       </c>
       <c r="V17" t="n">
-        <v>105.3134757130769</v>
+        <v>105.313475713077</v>
       </c>
       <c r="W17" t="n">
-        <v>127.3103711911122</v>
+        <v>127.3103711911123</v>
       </c>
       <c r="X17" t="n">
-        <v>147.641853321727</v>
+        <v>147.6418533217271</v>
       </c>
       <c r="Y17" t="n">
-        <v>163.4673259417934</v>
+        <v>163.4673259417935</v>
       </c>
     </row>
     <row r="18">
@@ -1926,19 +1926,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>72.07713011937277</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
         <v>135.7415135932285</v>
       </c>
       <c r="H18" t="n">
-        <v>107.7419192975101</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.20507959952954</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T18" t="n">
         <v>197.2470968808262</v>
@@ -1980,16 +1980,16 @@
         <v>224.6386443953714</v>
       </c>
       <c r="V18" t="n">
-        <v>8.688985230212722</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>26.76960094055764</v>
+        <v>153.1735745742804</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>59.98510352193773</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4.103651645930432</v>
+        <v>4.103651645930517</v>
       </c>
       <c r="U19" t="n">
-        <v>62.8196428556286</v>
+        <v>62.81964285562869</v>
       </c>
       <c r="V19" t="n">
-        <v>29.71660525749675</v>
+        <v>29.71660525749684</v>
       </c>
       <c r="W19" t="n">
-        <v>62.87283107797313</v>
+        <v>198.6067271008078</v>
       </c>
       <c r="X19" t="n">
-        <v>2.920614122866851</v>
+        <v>2.920614122866937</v>
       </c>
       <c r="Y19" t="n">
-        <v>195.7189995447727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,16 +2084,16 @@
         <v>143.7653498695003</v>
       </c>
       <c r="D20" t="n">
-        <v>133.384986945156</v>
+        <v>133.3849869451561</v>
       </c>
       <c r="E20" t="n">
         <v>159.8982899458451</v>
       </c>
       <c r="F20" t="n">
-        <v>184.0741176710985</v>
+        <v>184.0741176710979</v>
       </c>
       <c r="G20" t="n">
-        <v>191.1085302908134</v>
+        <v>191.1085302908135</v>
       </c>
       <c r="H20" t="n">
         <v>109.5322489984725</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.21589862281604</v>
+        <v>28.21589862281609</v>
       </c>
       <c r="V20" t="n">
         <v>105.313475713077</v>
       </c>
       <c r="W20" t="n">
-        <v>127.3103711911122</v>
+        <v>127.3103711911123</v>
       </c>
       <c r="X20" t="n">
-        <v>147.641853321727</v>
+        <v>147.6418533217271</v>
       </c>
       <c r="Y20" t="n">
-        <v>163.4673259417934</v>
+        <v>163.4673259417935</v>
       </c>
     </row>
     <row r="21">
@@ -2172,10 +2172,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7415135932285</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7419192975101</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.418898585928991</v>
+        <v>224.6386443953714</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>8.688985230212808</v>
       </c>
       <c r="W21" t="n">
-        <v>105.9857528807437</v>
+        <v>145.7980343528966</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2281,28 +2281,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>59.98510352193773</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>195.7189995447725</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>4.10365164593046</v>
+        <v>4.103651645930517</v>
       </c>
       <c r="U22" t="n">
-        <v>62.81964285562863</v>
+        <v>62.81964285562869</v>
       </c>
       <c r="V22" t="n">
-        <v>29.71660525749678</v>
+        <v>165.4505012803314</v>
       </c>
       <c r="W22" t="n">
-        <v>62.87283107797316</v>
+        <v>62.87283107797322</v>
       </c>
       <c r="X22" t="n">
-        <v>2.92061412286688</v>
+        <v>2.920614122866937</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>143.7653498695003</v>
       </c>
       <c r="D23" t="n">
-        <v>133.384986945156</v>
+        <v>133.3849869451561</v>
       </c>
       <c r="E23" t="n">
         <v>159.8982899458451</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>28.21589862281604</v>
+        <v>28.21589862281609</v>
       </c>
       <c r="V23" t="n">
         <v>105.313475713077</v>
       </c>
       <c r="W23" t="n">
-        <v>127.3103711911122</v>
+        <v>127.3103711911123</v>
       </c>
       <c r="X23" t="n">
-        <v>147.641853321727</v>
+        <v>147.6418533217271</v>
       </c>
       <c r="Y23" t="n">
-        <v>163.4673259417934</v>
+        <v>163.4673259417935</v>
       </c>
     </row>
     <row r="24">
@@ -2397,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.7415135932285</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.20507959952954</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T24" t="n">
         <v>197.2470968808262</v>
       </c>
       <c r="U24" t="n">
-        <v>1.418898585928991</v>
+        <v>224.6386443953714</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>26.76960094055767</v>
+        <v>26.76960094055772</v>
       </c>
       <c r="X24" t="n">
-        <v>133.0325276443012</v>
+        <v>139.443729061105</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.10365164593046</v>
+        <v>199.8226511907028</v>
       </c>
       <c r="U25" t="n">
-        <v>258.5386424004012</v>
+        <v>62.81964285562869</v>
       </c>
       <c r="V25" t="n">
-        <v>29.71660525749678</v>
+        <v>29.71660525749684</v>
       </c>
       <c r="W25" t="n">
-        <v>62.87283107797316</v>
+        <v>62.87283107797322</v>
       </c>
       <c r="X25" t="n">
-        <v>2.92061412286688</v>
+        <v>2.920614122866937</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>190.6622413656407</v>
       </c>
       <c r="I26" t="n">
-        <v>42.83707554977065</v>
+        <v>42.83707554977062</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>39.1190164868727</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7419192975101</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>76.80477854118097</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>77.20507959952954</v>
       </c>
       <c r="S27" t="n">
-        <v>21.63946945007459</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T27" t="n">
         <v>197.2470968808262</v>
       </c>
       <c r="U27" t="n">
-        <v>127.4802121579558</v>
+        <v>224.6386443953714</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -2697,10 +2697,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>62.37187616620415</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>203.671151418586</v>
+        <v>61.58139797631191</v>
       </c>
     </row>
     <row r="28">
@@ -2731,7 +2731,7 @@
         <v>17.44459722974939</v>
       </c>
       <c r="I28" t="n">
-        <v>4.566668424206077</v>
+        <v>4.566668424206074</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.68255810043827</v>
+        <v>20.68255810043826</v>
       </c>
       <c r="S28" t="n">
         <v>76.15194206431764</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.6266565491209</v>
+        <v>241.626656549121</v>
       </c>
       <c r="C29" t="n">
         <v>224.8953422366685</v>
@@ -2798,19 +2798,19 @@
         <v>214.5149793123243</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0282823130133</v>
+        <v>241.0282823130134</v>
       </c>
       <c r="F29" t="n">
-        <v>265.2041100382667</v>
+        <v>265.2041100382668</v>
       </c>
       <c r="G29" t="n">
-        <v>272.2385226579817</v>
+        <v>272.2385226579818</v>
       </c>
       <c r="H29" t="n">
         <v>190.6622413656407</v>
       </c>
       <c r="I29" t="n">
-        <v>42.83707554977063</v>
+        <v>42.83707554977066</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.7778232760474</v>
+        <v>51.77782327604742</v>
       </c>
       <c r="T29" t="n">
-        <v>78.57065682774621</v>
+        <v>78.57065682774623</v>
       </c>
       <c r="U29" t="n">
         <v>109.3458909899843</v>
       </c>
       <c r="V29" t="n">
-        <v>186.4434680802452</v>
+        <v>186.4434680802453</v>
       </c>
       <c r="W29" t="n">
         <v>208.4403635582805</v>
@@ -2877,10 +2877,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>13.94368026489974</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>11.59966464302093</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.20507959952954</v>
       </c>
       <c r="S30" t="n">
-        <v>21.63946945007459</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T30" t="n">
         <v>197.2470968808262</v>
@@ -2934,7 +2934,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>149.7601417674797</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.99393804840969</v>
+        <v>37.99393804840972</v>
       </c>
       <c r="C31" t="n">
-        <v>25.24679948892822</v>
+        <v>25.24679948892825</v>
       </c>
       <c r="D31" t="n">
-        <v>6.915813072245243</v>
+        <v>6.915813072245271</v>
       </c>
       <c r="E31" t="n">
-        <v>4.884870730925059</v>
+        <v>4.884870730925087</v>
       </c>
       <c r="F31" t="n">
-        <v>4.069267967530379</v>
+        <v>4.069267967530408</v>
       </c>
       <c r="G31" t="n">
-        <v>25.56367051129175</v>
+        <v>25.56367051129178</v>
       </c>
       <c r="H31" t="n">
-        <v>17.44459722974939</v>
+        <v>17.44459722974942</v>
       </c>
       <c r="I31" t="n">
-        <v>4.566668424206077</v>
+        <v>4.566668424206102</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.68255810043827</v>
+        <v>20.68255810043829</v>
       </c>
       <c r="S31" t="n">
-        <v>76.15194206431764</v>
+        <v>76.15194206431767</v>
       </c>
       <c r="T31" t="n">
-        <v>85.23364401309871</v>
+        <v>85.23364401309874</v>
       </c>
       <c r="U31" t="n">
         <v>143.9496352227969</v>
       </c>
       <c r="V31" t="n">
-        <v>110.846597624665</v>
+        <v>110.8465976246651</v>
       </c>
       <c r="W31" t="n">
         <v>144.0028234451414</v>
       </c>
       <c r="X31" t="n">
-        <v>84.05060649003514</v>
+        <v>84.05060649003516</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.6589204254941</v>
+        <v>76.65892042549413</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>224.8953422366685</v>
       </c>
       <c r="D32" t="n">
-        <v>214.5149793123243</v>
+        <v>214.5149793123242</v>
       </c>
       <c r="E32" t="n">
         <v>241.0282823130133</v>
@@ -3047,7 +3047,7 @@
         <v>190.6622413656407</v>
       </c>
       <c r="I32" t="n">
-        <v>42.83707554977065</v>
+        <v>42.8370755497706</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>51.7778232760474</v>
+        <v>51.77782327604736</v>
       </c>
       <c r="T32" t="n">
-        <v>78.57065682774621</v>
+        <v>78.57065682774618</v>
       </c>
       <c r="U32" t="n">
         <v>109.3458909899843</v>
@@ -3089,10 +3089,10 @@
         <v>186.4434680802452</v>
       </c>
       <c r="W32" t="n">
-        <v>208.4403635582805</v>
+        <v>208.4403635582804</v>
       </c>
       <c r="X32" t="n">
-        <v>228.7718456888953</v>
+        <v>228.7718456888952</v>
       </c>
       <c r="Y32" t="n">
         <v>244.5973183089617</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>23.28237216807071</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
         <v>171.025583927401</v>
@@ -3114,10 +3114,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>13.94368026489968</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>95.15298409159632</v>
       </c>
       <c r="G33" t="n">
         <v>135.7415135932285</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>76.80477854118097</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>21.63946945007459</v>
+        <v>21.63946945007456</v>
       </c>
       <c r="T33" t="n">
         <v>197.2470968808262</v>
@@ -3174,7 +3174,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
-        <v>78.51312488545211</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="34">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.99393804840969</v>
+        <v>37.99393804840966</v>
       </c>
       <c r="C34" t="n">
-        <v>25.24679948892822</v>
+        <v>25.24679948892819</v>
       </c>
       <c r="D34" t="n">
-        <v>6.915813072245243</v>
+        <v>6.915813072245214</v>
       </c>
       <c r="E34" t="n">
-        <v>4.884870730925059</v>
+        <v>4.88487073092503</v>
       </c>
       <c r="F34" t="n">
-        <v>4.069267967530379</v>
+        <v>4.069267967530351</v>
       </c>
       <c r="G34" t="n">
-        <v>25.56367051129175</v>
+        <v>25.56367051129172</v>
       </c>
       <c r="H34" t="n">
-        <v>17.44459722974939</v>
+        <v>17.44459722974936</v>
       </c>
       <c r="I34" t="n">
-        <v>4.566668424206077</v>
+        <v>4.566668424206045</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.68255810043827</v>
+        <v>20.68255810043824</v>
       </c>
       <c r="S34" t="n">
-        <v>76.15194206431764</v>
+        <v>76.15194206431761</v>
       </c>
       <c r="T34" t="n">
-        <v>85.23364401309871</v>
+        <v>85.23364401309868</v>
       </c>
       <c r="U34" t="n">
-        <v>143.9496352227969</v>
+        <v>143.9496352227968</v>
       </c>
       <c r="V34" t="n">
         <v>110.846597624665</v>
@@ -3250,10 +3250,10 @@
         <v>144.0028234451414</v>
       </c>
       <c r="X34" t="n">
-        <v>84.05060649003514</v>
+        <v>84.05060649003511</v>
       </c>
       <c r="Y34" t="n">
-        <v>76.6589204254941</v>
+        <v>76.65892042549407</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>184.0741176710985</v>
       </c>
       <c r="G35" t="n">
-        <v>191.1085302908134</v>
+        <v>191.1085302908135</v>
       </c>
       <c r="H35" t="n">
-        <v>109.5322489984725</v>
+        <v>109.5322489984724</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -3357,7 +3357,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7415135932285</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>163.7292228923487</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.2470968808262</v>
+        <v>84.54882821273357</v>
       </c>
       <c r="U36" t="n">
         <v>224.6386443953714</v>
       </c>
       <c r="V36" t="n">
-        <v>8.688985230212751</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>26.76960094055767</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>66.91605395639954</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.74437537157338</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>62.87283107797316</v>
       </c>
       <c r="X37" t="n">
-        <v>2.92061412286688</v>
+        <v>198.6396136676395</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>191.1085302908135</v>
       </c>
       <c r="H38" t="n">
-        <v>109.5322489984725</v>
+        <v>109.5322489984724</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3585,16 +3585,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7415135932285</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.20507959952954</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>127.5653056853356</v>
+        <v>197.2470968808262</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6386443953714</v>
+        <v>74.40225638616604</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>8.688985230212751</v>
       </c>
       <c r="W39" t="n">
         <v>249.98934675</v>
@@ -3648,7 +3648,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>48.7443753715734</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.10365164593046</v>
+        <v>199.8226511907031</v>
       </c>
       <c r="U40" t="n">
         <v>62.81964285562863</v>
@@ -3740,7 +3740,7 @@
         <v>163.0559997213747</v>
       </c>
       <c r="C41" t="n">
-        <v>146.3246854089223</v>
+        <v>142.1133747904819</v>
       </c>
       <c r="D41" t="n">
         <v>135.9443224845781</v>
@@ -3749,7 +3749,7 @@
         <v>162.4576254852671</v>
       </c>
       <c r="F41" t="n">
-        <v>182.422142592082</v>
+        <v>186.6334532105205</v>
       </c>
       <c r="G41" t="n">
         <v>193.6678658302355</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>57.25777785702343</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>16.99826137082901</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>77.20507959952954</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T42" t="n">
         <v>197.2470968808262</v>
@@ -3879,13 +3879,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>29.32893647997972</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>59.98510352193773</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>5.479949662288931</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.58576891646005</v>
+        <v>122.9372183257246</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>146.3246854089223</v>
       </c>
       <c r="D44" t="n">
-        <v>131.733011866139</v>
+        <v>135.9443224845781</v>
       </c>
       <c r="E44" t="n">
         <v>162.4576254852671</v>
@@ -3992,7 +3992,7 @@
         <v>193.6678658302355</v>
       </c>
       <c r="H44" t="n">
-        <v>112.0915845378945</v>
+        <v>107.8802739194549</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4053,28 +4053,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>65.42645727213342</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7415135932285</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>76.80477854118097</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.20507959952954</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>197.2470968808262</v>
       </c>
       <c r="U45" t="n">
-        <v>98.22873597556541</v>
+        <v>224.6386443953714</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4119,10 +4119,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>182.9223218476624</v>
       </c>
       <c r="T46" t="n">
         <v>6.662987185352511</v>
@@ -4201,7 +4201,7 @@
         <v>5.479949662288931</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.94769767446321</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1156.80979110934</v>
+        <v>712.3271959261065</v>
       </c>
       <c r="C11" t="n">
-        <v>1156.80979110934</v>
+        <v>712.3271959261065</v>
       </c>
       <c r="D11" t="n">
-        <v>1156.80979110934</v>
+        <v>712.3271959261065</v>
       </c>
       <c r="E11" t="n">
-        <v>893.243426828161</v>
+        <v>448.7608316449274</v>
       </c>
       <c r="F11" t="n">
-        <v>605.2570345416755</v>
+        <v>160.7744393584418</v>
       </c>
       <c r="G11" t="n">
-        <v>310.1651749625485</v>
+        <v>160.7744393584418</v>
       </c>
       <c r="H11" t="n">
-        <v>97.4735995170989</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="I11" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="J11" t="n">
-        <v>77.68595933140696</v>
+        <v>77.68595933140705</v>
       </c>
       <c r="K11" t="n">
-        <v>265.2860470056561</v>
+        <v>265.2860470056565</v>
       </c>
       <c r="L11" t="n">
-        <v>549.9896226232089</v>
+        <v>549.9896226232092</v>
       </c>
       <c r="M11" t="n">
-        <v>881.9895008619227</v>
+        <v>881.989500861923</v>
       </c>
       <c r="N11" t="n">
         <v>1203.844309233456</v>
@@ -5066,25 +5066,25 @@
         <v>1705.018669030472</v>
       </c>
       <c r="S11" t="n">
-        <v>1638.017516849428</v>
+        <v>1632.614384584612</v>
       </c>
       <c r="T11" t="n">
-        <v>1538.549764169529</v>
+        <v>1533.146631904713</v>
       </c>
       <c r="U11" t="n">
-        <v>1407.995916376258</v>
+        <v>1402.592784111443</v>
       </c>
       <c r="V11" t="n">
-        <v>1407.995916376258</v>
+        <v>1194.162595822959</v>
       </c>
       <c r="W11" t="n">
-        <v>1407.995916376258</v>
+        <v>963.5133211930249</v>
       </c>
       <c r="X11" t="n">
-        <v>1156.80979110934</v>
+        <v>712.3271959261065</v>
       </c>
       <c r="Y11" t="n">
-        <v>1156.80979110934</v>
+        <v>712.3271959261065</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>748.2787878354166</v>
+        <v>541.1109840527649</v>
       </c>
       <c r="C12" t="n">
-        <v>575.5256727572337</v>
+        <v>368.3578689745821</v>
       </c>
       <c r="D12" t="n">
-        <v>427.9373661161776</v>
+        <v>344.1911129566777</v>
       </c>
       <c r="E12" t="n">
-        <v>393.749387742184</v>
+        <v>186.5815839595324</v>
       </c>
       <c r="F12" t="n">
-        <v>248.7935977588008</v>
+        <v>47.79146275061787</v>
       </c>
       <c r="G12" t="n">
-        <v>111.6809577656407</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="H12" t="n">
-        <v>111.6809577656407</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="I12" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="J12" t="n">
-        <v>67.84169496362995</v>
+        <v>67.84169496362996</v>
       </c>
       <c r="K12" t="n">
-        <v>252.1166010199254</v>
+        <v>252.1166010199255</v>
       </c>
       <c r="L12" t="n">
-        <v>560.746560111683</v>
+        <v>501.4685884878117</v>
       </c>
       <c r="M12" t="n">
-        <v>973.7033593117619</v>
+        <v>914.4253876878906</v>
       </c>
       <c r="N12" t="n">
-        <v>1002.185327277839</v>
+        <v>1336.417508272933</v>
       </c>
       <c r="O12" t="n">
-        <v>1336.417508272932</v>
+        <v>1336.417508272933</v>
       </c>
       <c r="P12" t="n">
         <v>1588.241758872392</v>
@@ -5148,22 +5148,22 @@
         <v>1539.635615603857</v>
       </c>
       <c r="T12" t="n">
-        <v>1340.396123805043</v>
+        <v>1463.817674428195</v>
       </c>
       <c r="U12" t="n">
-        <v>1236.909952816708</v>
+        <v>1360.33150343986</v>
       </c>
       <c r="V12" t="n">
-        <v>1126.080259965461</v>
+        <v>1249.501810588612</v>
       </c>
       <c r="W12" t="n">
-        <v>996.9873189219455</v>
+        <v>996.9873189219458</v>
       </c>
       <c r="X12" t="n">
-        <v>913.8819709506747</v>
+        <v>790.4604203275233</v>
       </c>
       <c r="Y12" t="n">
-        <v>831.5750857974768</v>
+        <v>584.7319845511737</v>
       </c>
     </row>
     <row r="13">
@@ -5188,28 +5188,28 @@
         <v>142.4662230182953</v>
       </c>
       <c r="G13" t="n">
-        <v>96.54088075905726</v>
+        <v>96.54088075905725</v>
       </c>
       <c r="H13" t="n">
-        <v>58.81662262258925</v>
+        <v>58.81662262258922</v>
       </c>
       <c r="I13" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="J13" t="n">
-        <v>83.64527387097701</v>
+        <v>83.64527387097704</v>
       </c>
       <c r="K13" t="n">
         <v>217.1477656179561</v>
       </c>
       <c r="L13" t="n">
-        <v>409.9599245477661</v>
+        <v>409.9599245477656</v>
       </c>
       <c r="M13" t="n">
-        <v>617.2705544451101</v>
+        <v>617.2705544451097</v>
       </c>
       <c r="N13" t="n">
-        <v>827.6693511300653</v>
+        <v>827.669351130065</v>
       </c>
       <c r="O13" t="n">
         <v>1015.90437634299</v>
@@ -5218,7 +5218,7 @@
         <v>1171.208089419694</v>
       </c>
       <c r="Q13" t="n">
-        <v>1232.788298698727</v>
+        <v>1232.788298698726</v>
       </c>
       <c r="R13" t="n">
         <v>1191.793373016108</v>
@@ -5233,7 +5233,7 @@
         <v>823.0635989996688</v>
       </c>
       <c r="V13" t="n">
-        <v>690.9938859188414</v>
+        <v>690.9938859188416</v>
       </c>
       <c r="W13" t="n">
         <v>525.4330356456139</v>
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1365.442933438839</v>
+        <v>712.3271959261061</v>
       </c>
       <c r="C14" t="n">
-        <v>1118.172468224675</v>
+        <v>712.3271959261061</v>
       </c>
       <c r="D14" t="n">
-        <v>881.3872180856058</v>
+        <v>573.7315392437271</v>
       </c>
       <c r="E14" t="n">
-        <v>617.8208538044267</v>
+        <v>310.1651749625481</v>
       </c>
       <c r="F14" t="n">
-        <v>329.8344615179412</v>
+        <v>310.1651749625481</v>
       </c>
       <c r="G14" t="n">
-        <v>97.47359951709889</v>
+        <v>310.1651749625481</v>
       </c>
       <c r="H14" t="n">
-        <v>97.47359951709889</v>
+        <v>97.47359951709899</v>
       </c>
       <c r="I14" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="J14" t="n">
-        <v>77.68595933140719</v>
+        <v>77.68595933140722</v>
       </c>
       <c r="K14" t="n">
         <v>265.2860470056564</v>
       </c>
       <c r="L14" t="n">
-        <v>549.9896226232091</v>
+        <v>549.9896226232092</v>
       </c>
       <c r="M14" t="n">
-        <v>881.9895008619229</v>
+        <v>881.989500861923</v>
       </c>
       <c r="N14" t="n">
         <v>1203.844309233456</v>
@@ -5306,22 +5306,22 @@
         <v>1632.614384584612</v>
       </c>
       <c r="T14" t="n">
-        <v>1632.614384584612</v>
+        <v>1533.146631904713</v>
       </c>
       <c r="U14" t="n">
-        <v>1632.614384584612</v>
+        <v>1402.592784111442</v>
       </c>
       <c r="V14" t="n">
-        <v>1632.614384584612</v>
+        <v>1194.162595822958</v>
       </c>
       <c r="W14" t="n">
-        <v>1632.614384584612</v>
+        <v>963.5133211930245</v>
       </c>
       <c r="X14" t="n">
-        <v>1632.614384584612</v>
+        <v>712.3271959261061</v>
       </c>
       <c r="Y14" t="n">
-        <v>1365.442933438839</v>
+        <v>712.3271959261061</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>670.6982034503852</v>
+        <v>177.0120009577783</v>
       </c>
       <c r="C15" t="n">
-        <v>497.9450883722024</v>
+        <v>127.6804365027472</v>
       </c>
       <c r="D15" t="n">
-        <v>350.3567817311463</v>
+        <v>103.5136804848428</v>
       </c>
       <c r="E15" t="n">
-        <v>192.747252734001</v>
+        <v>69.32570211084925</v>
       </c>
       <c r="F15" t="n">
-        <v>171.2130133737696</v>
+        <v>47.79146275061785</v>
       </c>
       <c r="G15" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="H15" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="I15" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="J15" t="n">
-        <v>67.84169496362995</v>
+        <v>67.84169496362996</v>
       </c>
       <c r="K15" t="n">
-        <v>167.2364074927181</v>
+        <v>67.84169496362996</v>
       </c>
       <c r="L15" t="n">
-        <v>167.2364074927181</v>
+        <v>376.4716540553875</v>
       </c>
       <c r="M15" t="n">
-        <v>580.1932066927969</v>
+        <v>789.4284532554665</v>
       </c>
       <c r="N15" t="n">
-        <v>1002.185327277839</v>
+        <v>1211.420573840508</v>
       </c>
       <c r="O15" t="n">
-        <v>1336.417508272932</v>
+        <v>1453.194418431013</v>
       </c>
       <c r="P15" t="n">
-        <v>1588.241758872392</v>
+        <v>1705.018669030472</v>
       </c>
       <c r="Q15" t="n">
         <v>1705.018669030472</v>
       </c>
       <c r="R15" t="n">
-        <v>1627.033740142058</v>
+        <v>1627.033740142059</v>
       </c>
       <c r="S15" t="n">
-        <v>1461.650686715443</v>
+        <v>1461.650686715444</v>
       </c>
       <c r="T15" t="n">
-        <v>1385.832745539781</v>
+        <v>1262.411194916629</v>
       </c>
       <c r="U15" t="n">
-        <v>1282.346574551446</v>
+        <v>1035.503473305143</v>
       </c>
       <c r="V15" t="n">
-        <v>1132.245928739929</v>
+        <v>801.2522298307438</v>
       </c>
       <c r="W15" t="n">
-        <v>879.7314370732624</v>
+        <v>548.7377381640771</v>
       </c>
       <c r="X15" t="n">
-        <v>796.6260891019917</v>
+        <v>342.2108395696546</v>
       </c>
       <c r="Y15" t="n">
-        <v>714.319203948794</v>
+        <v>259.9039544164568</v>
       </c>
     </row>
     <row r="16">
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.4121064132898</v>
+        <v>264.4121064132897</v>
       </c>
       <c r="C16" t="n">
-        <v>218.8068358938129</v>
+        <v>218.8068358938128</v>
       </c>
       <c r="D16" t="n">
-        <v>191.7177132699754</v>
+        <v>191.7177132699753</v>
       </c>
       <c r="E16" t="n">
-        <v>166.6800475565623</v>
+        <v>166.6800475565622</v>
       </c>
       <c r="F16" t="n">
-        <v>142.4662230182951</v>
+        <v>142.4662230182953</v>
       </c>
       <c r="G16" t="n">
-        <v>96.5408807590572</v>
+        <v>96.54088075905722</v>
       </c>
       <c r="H16" t="n">
-        <v>58.81662262258924</v>
+        <v>58.81662262258923</v>
       </c>
       <c r="I16" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="J16" t="n">
-        <v>83.64527387097701</v>
+        <v>83.64527387097709</v>
       </c>
       <c r="K16" t="n">
-        <v>217.1477656179561</v>
+        <v>217.1477656179562</v>
       </c>
       <c r="L16" t="n">
-        <v>409.9599245477657</v>
+        <v>409.9599245477658</v>
       </c>
       <c r="M16" t="n">
         <v>617.2705544451097</v>
       </c>
       <c r="N16" t="n">
-        <v>827.669351130065</v>
+        <v>827.6693511300645</v>
       </c>
       <c r="O16" t="n">
-        <v>1015.90437634299</v>
+        <v>1015.904376342989</v>
       </c>
       <c r="P16" t="n">
-        <v>1171.208089419694</v>
+        <v>1171.208089419693</v>
       </c>
       <c r="Q16" t="n">
-        <v>1232.788298698727</v>
+        <v>1232.788298698726</v>
       </c>
       <c r="R16" t="n">
         <v>1191.793373016108</v>
@@ -5464,22 +5464,22 @@
         <v>1094.768766561894</v>
       </c>
       <c r="T16" t="n">
-        <v>988.5707237957806</v>
+        <v>988.5707237957804</v>
       </c>
       <c r="U16" t="n">
-        <v>823.0635989996686</v>
+        <v>823.0635989996684</v>
       </c>
       <c r="V16" t="n">
-        <v>690.9938859188413</v>
+        <v>690.9938859188412</v>
       </c>
       <c r="W16" t="n">
-        <v>525.4330356456137</v>
+        <v>525.4330356456136</v>
       </c>
       <c r="X16" t="n">
-        <v>420.4299802765339</v>
+        <v>420.4299802765337</v>
       </c>
       <c r="Y16" t="n">
-        <v>322.8932744675965</v>
+        <v>322.8932744675964</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>965.1746397653421</v>
+        <v>965.1746397653424</v>
       </c>
       <c r="C17" t="n">
-        <v>819.9571146446349</v>
+        <v>819.9571146446351</v>
       </c>
       <c r="D17" t="n">
-        <v>685.2248045990228</v>
+        <v>685.2248045990229</v>
       </c>
       <c r="E17" t="n">
-        <v>523.7113804113005</v>
+        <v>523.7113804113009</v>
       </c>
       <c r="F17" t="n">
-        <v>337.7779282182717</v>
+        <v>337.7779282182721</v>
       </c>
       <c r="G17" t="n">
-        <v>144.7390087326018</v>
+        <v>144.7390087326019</v>
       </c>
       <c r="H17" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="I17" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="J17" t="n">
-        <v>77.68595933140719</v>
+        <v>77.68595933140722</v>
       </c>
       <c r="K17" t="n">
         <v>265.2860470056564</v>
       </c>
       <c r="L17" t="n">
-        <v>549.9896226232091</v>
+        <v>549.9896226232092</v>
       </c>
       <c r="M17" t="n">
-        <v>881.9895008619227</v>
+        <v>881.989500861923</v>
       </c>
       <c r="N17" t="n">
         <v>1203.844309233456</v>
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>830.7993675415506</v>
+        <v>646.5314474324807</v>
       </c>
       <c r="C18" t="n">
-        <v>658.0462524633679</v>
+        <v>473.778332354298</v>
       </c>
       <c r="D18" t="n">
-        <v>510.4579458223117</v>
+        <v>473.778332354298</v>
       </c>
       <c r="E18" t="n">
-        <v>352.8484168251664</v>
+        <v>316.1688033571527</v>
       </c>
       <c r="F18" t="n">
-        <v>280.043234886406</v>
+        <v>171.2130133737696</v>
       </c>
       <c r="G18" t="n">
-        <v>142.9305948932459</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="H18" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="I18" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="J18" t="n">
-        <v>67.84169496362995</v>
+        <v>67.84169496362996</v>
       </c>
       <c r="K18" t="n">
-        <v>252.1166010199254</v>
+        <v>110.43069900042</v>
       </c>
       <c r="L18" t="n">
-        <v>560.746560111683</v>
+        <v>419.0606580921776</v>
       </c>
       <c r="M18" t="n">
-        <v>580.1932066927969</v>
+        <v>832.0174572922565</v>
       </c>
       <c r="N18" t="n">
-        <v>1002.185327277839</v>
+        <v>1254.009577877298</v>
       </c>
       <c r="O18" t="n">
-        <v>1336.417508272932</v>
+        <v>1588.241758872392</v>
       </c>
       <c r="P18" t="n">
         <v>1588.241758872392</v>
@@ -5616,28 +5616,28 @@
         <v>1705.018669030472</v>
       </c>
       <c r="R18" t="n">
-        <v>1705.018669030472</v>
+        <v>1627.033740142059</v>
       </c>
       <c r="S18" t="n">
-        <v>1705.018669030472</v>
+        <v>1461.650686715444</v>
       </c>
       <c r="T18" t="n">
-        <v>1505.779177231658</v>
+        <v>1262.411194916629</v>
       </c>
       <c r="U18" t="n">
-        <v>1278.871455620171</v>
+        <v>1035.503473305143</v>
       </c>
       <c r="V18" t="n">
-        <v>1270.094702862381</v>
+        <v>801.2522298307438</v>
       </c>
       <c r="W18" t="n">
-        <v>1243.054701912323</v>
+        <v>646.5314474324807</v>
       </c>
       <c r="X18" t="n">
-        <v>1036.5278033179</v>
+        <v>646.5314474324807</v>
       </c>
       <c r="Y18" t="n">
-        <v>830.7993675415506</v>
+        <v>646.5314474324807</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="C19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="D19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="E19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="F19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="G19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="H19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="I19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="J19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="K19" t="n">
-        <v>46.63740336183756</v>
+        <v>46.63740336183757</v>
       </c>
       <c r="L19" t="n">
         <v>118.4841005258961</v>
       </c>
       <c r="M19" t="n">
-        <v>204.829268657489</v>
+        <v>204.8292686574891</v>
       </c>
       <c r="N19" t="n">
         <v>294.2626035766933</v>
       </c>
       <c r="O19" t="n">
-        <v>361.5321670238669</v>
+        <v>361.532167023867</v>
       </c>
       <c r="P19" t="n">
-        <v>395.87041833482</v>
+        <v>395.8704183348201</v>
       </c>
       <c r="Q19" t="n">
-        <v>395.87041833482</v>
+        <v>335.2794046762971</v>
       </c>
       <c r="R19" t="n">
-        <v>395.87041833482</v>
+        <v>335.2794046762971</v>
       </c>
       <c r="S19" t="n">
-        <v>395.87041833482</v>
+        <v>335.2794046762971</v>
       </c>
       <c r="T19" t="n">
-        <v>391.725315662163</v>
+        <v>331.1343020036401</v>
       </c>
       <c r="U19" t="n">
-        <v>328.2711309595079</v>
+        <v>267.6801173009848</v>
       </c>
       <c r="V19" t="n">
-        <v>298.2543579721374</v>
+        <v>237.6633443136143</v>
       </c>
       <c r="W19" t="n">
-        <v>234.7464477923666</v>
+        <v>37.05048865623262</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7963325167435</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>965.1746397653426</v>
+        <v>965.1746397653422</v>
       </c>
       <c r="C20" t="n">
-        <v>819.9571146446352</v>
+        <v>819.9571146446349</v>
       </c>
       <c r="D20" t="n">
-        <v>685.2248045990232</v>
+        <v>685.2248045990227</v>
       </c>
       <c r="E20" t="n">
-        <v>523.711380411301</v>
+        <v>523.7113804113003</v>
       </c>
       <c r="F20" t="n">
         <v>337.7779282182721</v>
@@ -5744,22 +5744,22 @@
         <v>144.7390087326019</v>
       </c>
       <c r="H20" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="I20" t="n">
         <v>34.10037338060944</v>
       </c>
       <c r="J20" t="n">
-        <v>77.68595933140696</v>
+        <v>77.68595933140722</v>
       </c>
       <c r="K20" t="n">
-        <v>265.2860470056561</v>
+        <v>265.2860470056564</v>
       </c>
       <c r="L20" t="n">
-        <v>549.9896226232089</v>
+        <v>549.9896226232092</v>
       </c>
       <c r="M20" t="n">
-        <v>881.9895008619227</v>
+        <v>881.989500861923</v>
       </c>
       <c r="N20" t="n">
         <v>1203.844309233456</v>
@@ -5795,7 +5795,7 @@
         <v>1292.410993425692</v>
       </c>
       <c r="Y20" t="n">
-        <v>1127.292482373376</v>
+        <v>1127.292482373375</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>745.3404465890283</v>
+        <v>499.3975850832315</v>
       </c>
       <c r="C21" t="n">
-        <v>572.5873315108454</v>
+        <v>326.6444700050487</v>
       </c>
       <c r="D21" t="n">
-        <v>424.9990248697892</v>
+        <v>179.0561633639926</v>
       </c>
       <c r="E21" t="n">
-        <v>424.9990248697892</v>
+        <v>179.0561633639926</v>
       </c>
       <c r="F21" t="n">
-        <v>280.043234886406</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="G21" t="n">
-        <v>142.9305948932459</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="H21" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="I21" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="J21" t="n">
-        <v>34.10037338060944</v>
+        <v>67.84169496362996</v>
       </c>
       <c r="K21" t="n">
-        <v>218.3752794369049</v>
+        <v>252.1166010199255</v>
       </c>
       <c r="L21" t="n">
-        <v>527.0052385286625</v>
+        <v>560.746560111683</v>
       </c>
       <c r="M21" t="n">
-        <v>939.9620377287414</v>
+        <v>973.7033593117619</v>
       </c>
       <c r="N21" t="n">
-        <v>1118.962237435919</v>
+        <v>1395.695479896804</v>
       </c>
       <c r="O21" t="n">
-        <v>1453.194418431013</v>
+        <v>1395.695479896804</v>
       </c>
       <c r="P21" t="n">
-        <v>1705.018669030472</v>
+        <v>1588.241758872392</v>
       </c>
       <c r="Q21" t="n">
         <v>1705.018669030472</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.033740142058</v>
+        <v>1627.033740142059</v>
       </c>
       <c r="S21" t="n">
-        <v>1461.650686715443</v>
+        <v>1461.650686715444</v>
       </c>
       <c r="T21" t="n">
-        <v>1461.650686715443</v>
+        <v>1461.650686715444</v>
       </c>
       <c r="U21" t="n">
-        <v>1460.217455820566</v>
+        <v>1234.742965103957</v>
       </c>
       <c r="V21" t="n">
-        <v>1225.966212346166</v>
+        <v>1225.966212346167</v>
       </c>
       <c r="W21" t="n">
-        <v>1118.909896305011</v>
+        <v>1078.695470575564</v>
       </c>
       <c r="X21" t="n">
-        <v>912.3829977105887</v>
+        <v>872.1685719811416</v>
       </c>
       <c r="Y21" t="n">
-        <v>912.3829977105887</v>
+        <v>666.440136204792</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="C22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="D22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="E22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="F22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="G22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="H22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="I22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="J22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="K22" t="n">
-        <v>46.63740336183756</v>
+        <v>46.63740336183757</v>
       </c>
       <c r="L22" t="n">
         <v>118.4841005258961</v>
       </c>
       <c r="M22" t="n">
-        <v>204.829268657489</v>
+        <v>204.8292686574891</v>
       </c>
       <c r="N22" t="n">
         <v>294.2626035766933</v>
       </c>
       <c r="O22" t="n">
-        <v>361.5321670238669</v>
+        <v>361.532167023867</v>
       </c>
       <c r="P22" t="n">
-        <v>395.87041833482</v>
+        <v>395.8704183348201</v>
       </c>
       <c r="Q22" t="n">
-        <v>395.87041833482</v>
+        <v>335.2794046762971</v>
       </c>
       <c r="R22" t="n">
-        <v>395.87041833482</v>
+        <v>335.2794046762971</v>
       </c>
       <c r="S22" t="n">
-        <v>198.1744591986862</v>
+        <v>335.2794046762971</v>
       </c>
       <c r="T22" t="n">
-        <v>194.0293565260291</v>
+        <v>331.1343020036401</v>
       </c>
       <c r="U22" t="n">
-        <v>130.5751718233739</v>
+        <v>267.6801173009848</v>
       </c>
       <c r="V22" t="n">
-        <v>100.5583988360034</v>
+        <v>100.5583988360035</v>
       </c>
       <c r="W22" t="n">
-        <v>37.05048865623255</v>
+        <v>37.05048865623262</v>
       </c>
       <c r="X22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>965.174639765343</v>
+        <v>965.1746397653428</v>
       </c>
       <c r="C23" t="n">
-        <v>819.9571146446356</v>
+        <v>819.9571146446355</v>
       </c>
       <c r="D23" t="n">
-        <v>685.2248045990234</v>
+        <v>685.2248045990232</v>
       </c>
       <c r="E23" t="n">
-        <v>523.7113804113009</v>
+        <v>523.7113804113008</v>
       </c>
       <c r="F23" t="n">
-        <v>337.7779282182721</v>
+        <v>337.7779282182717</v>
       </c>
       <c r="G23" t="n">
         <v>144.7390087326019</v>
       </c>
       <c r="H23" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="I23" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="J23" t="n">
-        <v>77.68595933140705</v>
+        <v>77.68595933140722</v>
       </c>
       <c r="K23" t="n">
-        <v>265.2860470056562</v>
+        <v>265.2860470056564</v>
       </c>
       <c r="L23" t="n">
-        <v>549.989622623209</v>
+        <v>549.9896226232092</v>
       </c>
       <c r="M23" t="n">
-        <v>881.9895008619228</v>
+        <v>881.989500861923</v>
       </c>
       <c r="N23" t="n">
         <v>1203.844309233456</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>902.9499755861734</v>
+        <v>427.6315415274622</v>
       </c>
       <c r="C24" t="n">
-        <v>730.1968605079906</v>
+        <v>427.6315415274622</v>
       </c>
       <c r="D24" t="n">
-        <v>582.6085538669345</v>
+        <v>280.043234886406</v>
       </c>
       <c r="E24" t="n">
-        <v>424.9990248697892</v>
+        <v>280.043234886406</v>
       </c>
       <c r="F24" t="n">
         <v>280.043234886406</v>
@@ -6060,58 +6060,58 @@
         <v>142.9305948932459</v>
       </c>
       <c r="H24" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="I24" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="J24" t="n">
-        <v>67.84169496362995</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="K24" t="n">
-        <v>252.1166010199254</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="L24" t="n">
-        <v>560.746560111683</v>
+        <v>342.730332472367</v>
       </c>
       <c r="M24" t="n">
-        <v>832.0174572922564</v>
+        <v>755.687131672446</v>
       </c>
       <c r="N24" t="n">
-        <v>1254.009577877298</v>
+        <v>1118.962237435919</v>
       </c>
       <c r="O24" t="n">
-        <v>1588.241758872392</v>
+        <v>1453.194418431013</v>
       </c>
       <c r="P24" t="n">
-        <v>1588.241758872392</v>
+        <v>1705.018669030472</v>
       </c>
       <c r="Q24" t="n">
         <v>1705.018669030472</v>
       </c>
       <c r="R24" t="n">
-        <v>1705.018669030472</v>
+        <v>1627.033740142059</v>
       </c>
       <c r="S24" t="n">
-        <v>1705.018669030472</v>
+        <v>1461.650686715444</v>
       </c>
       <c r="T24" t="n">
-        <v>1505.779177231658</v>
+        <v>1262.411194916629</v>
       </c>
       <c r="U24" t="n">
-        <v>1504.34594633678</v>
+        <v>1035.503473305143</v>
       </c>
       <c r="V24" t="n">
-        <v>1270.09470286238</v>
+        <v>801.2522298307438</v>
       </c>
       <c r="W24" t="n">
-        <v>1243.054701912322</v>
+        <v>774.2122288806854</v>
       </c>
       <c r="X24" t="n">
-        <v>1108.678411362523</v>
+        <v>633.3599773038117</v>
       </c>
       <c r="Y24" t="n">
-        <v>902.9499755861734</v>
+        <v>427.6315415274622</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="C25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="D25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="E25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="F25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="G25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="H25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="I25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="J25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="K25" t="n">
-        <v>46.63740336183756</v>
+        <v>46.63740336183757</v>
       </c>
       <c r="L25" t="n">
         <v>118.4841005258961</v>
       </c>
       <c r="M25" t="n">
-        <v>204.829268657489</v>
+        <v>204.8292686574891</v>
       </c>
       <c r="N25" t="n">
         <v>294.2626035766933</v>
       </c>
       <c r="O25" t="n">
-        <v>361.5321670238669</v>
+        <v>361.532167023867</v>
       </c>
       <c r="P25" t="n">
-        <v>395.87041833482</v>
+        <v>395.8704183348201</v>
       </c>
       <c r="Q25" t="n">
-        <v>395.87041833482</v>
+        <v>395.8704183348201</v>
       </c>
       <c r="R25" t="n">
-        <v>395.87041833482</v>
+        <v>395.8704183348201</v>
       </c>
       <c r="S25" t="n">
-        <v>395.87041833482</v>
+        <v>395.8704183348201</v>
       </c>
       <c r="T25" t="n">
-        <v>391.725315662163</v>
+        <v>194.0293565260293</v>
       </c>
       <c r="U25" t="n">
-        <v>130.5751718233739</v>
+        <v>130.5751718233741</v>
       </c>
       <c r="V25" t="n">
-        <v>100.5583988360034</v>
+        <v>100.5583988360035</v>
       </c>
       <c r="W25" t="n">
-        <v>37.05048865623255</v>
+        <v>37.05048865623262</v>
       </c>
       <c r="X25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.10037338060944</v>
+        <v>34.10037338060945</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6209,10 @@
         <v>1079.931889116923</v>
       </c>
       <c r="E26" t="n">
-        <v>836.4689776896365</v>
+        <v>836.4689776896366</v>
       </c>
       <c r="F26" t="n">
-        <v>568.5860382570438</v>
+        <v>568.586038257044</v>
       </c>
       <c r="G26" t="n">
         <v>293.59763153181</v>
@@ -6251,7 +6251,7 @@
         <v>2886.986782882856</v>
       </c>
       <c r="S26" t="n">
-        <v>2834.68595129089</v>
+        <v>2834.685951290889</v>
       </c>
       <c r="T26" t="n">
         <v>2755.321651464883</v>
@@ -6266,7 +6266,7 @@
         <v>2245.998699314873</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.916026901847</v>
+        <v>2014.916026901848</v>
       </c>
       <c r="Y26" t="n">
         <v>1767.848028609967</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.0572822550923</v>
+        <v>547.4075193467899</v>
       </c>
       <c r="C27" t="n">
-        <v>694.3041671769095</v>
+        <v>507.8933612792417</v>
       </c>
       <c r="D27" t="n">
-        <v>546.7158605358533</v>
+        <v>360.3050546381855</v>
       </c>
       <c r="E27" t="n">
-        <v>389.106331538708</v>
+        <v>202.6955256410403</v>
       </c>
       <c r="F27" t="n">
-        <v>244.1505415553249</v>
+        <v>57.73973565765713</v>
       </c>
       <c r="G27" t="n">
-        <v>244.1505415553249</v>
+        <v>57.73973565765713</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3203200426884</v>
+        <v>57.73973565765713</v>
       </c>
       <c r="I27" t="n">
         <v>57.73973565765713</v>
@@ -6327,28 +6327,28 @@
         <v>2139.461332228473</v>
       </c>
       <c r="R27" t="n">
-        <v>2139.461332228473</v>
+        <v>2061.476403340059</v>
       </c>
       <c r="S27" t="n">
-        <v>2117.603282278903</v>
+        <v>1896.093349913444</v>
       </c>
       <c r="T27" t="n">
-        <v>1918.363790480088</v>
+        <v>1696.85385811463</v>
       </c>
       <c r="U27" t="n">
-        <v>1789.595899411446</v>
+        <v>1469.946136503144</v>
       </c>
       <c r="V27" t="n">
-        <v>1555.344655937047</v>
+        <v>1235.694893028744</v>
       </c>
       <c r="W27" t="n">
-        <v>1302.83016427038</v>
+        <v>983.1804013620778</v>
       </c>
       <c r="X27" t="n">
-        <v>1239.828269153002</v>
+        <v>776.6535027676553</v>
       </c>
       <c r="Y27" t="n">
-        <v>1034.099833376653</v>
+        <v>714.4500704683503</v>
       </c>
     </row>
     <row r="28">
@@ -6376,31 +6376,31 @@
         <v>79.97333732831922</v>
       </c>
       <c r="H28" t="n">
-        <v>62.35253204574408</v>
+        <v>62.35253204574407</v>
       </c>
       <c r="I28" t="n">
         <v>57.73973565765713</v>
       </c>
       <c r="J28" t="n">
-        <v>57.73973565765713</v>
+        <v>126.9880302901252</v>
       </c>
       <c r="K28" t="n">
-        <v>210.9456215467366</v>
+        <v>139.5250602713533</v>
       </c>
       <c r="L28" t="n">
-        <v>423.4611746186465</v>
+        <v>211.3717574354118</v>
       </c>
       <c r="M28" t="n">
-        <v>509.8063427502394</v>
+        <v>297.7169255670048</v>
       </c>
       <c r="N28" t="n">
-        <v>692.4957446475105</v>
+        <v>527.8191163940604</v>
       </c>
       <c r="O28" t="n">
-        <v>900.4341640025355</v>
+        <v>678.4817046735509</v>
       </c>
       <c r="P28" t="n">
-        <v>934.7724153134885</v>
+        <v>853.4888118923554</v>
       </c>
       <c r="Q28" t="n">
         <v>934.7724153134885</v>
@@ -6449,25 +6449,25 @@
         <v>836.4689776896366</v>
       </c>
       <c r="F29" t="n">
-        <v>568.586038257044</v>
+        <v>568.5860382570439</v>
       </c>
       <c r="G29" t="n">
-        <v>293.59763153181</v>
+        <v>293.5976315318098</v>
       </c>
       <c r="H29" t="n">
-        <v>101.0095089402537</v>
+        <v>101.0095089402535</v>
       </c>
       <c r="I29" t="n">
         <v>57.73973565765713</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9941775163063</v>
+        <v>241.9941775163062</v>
       </c>
       <c r="K29" t="n">
-        <v>570.2631210984068</v>
+        <v>570.2631210984067</v>
       </c>
       <c r="L29" t="n">
-        <v>995.6355526238109</v>
+        <v>995.6355526238108</v>
       </c>
       <c r="M29" t="n">
         <v>1468.304286770376</v>
@@ -6488,7 +6488,7 @@
         <v>2886.986782882856</v>
       </c>
       <c r="S29" t="n">
-        <v>2834.685951290889</v>
+        <v>2834.68595129089</v>
       </c>
       <c r="T29" t="n">
         <v>2755.321651464883</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>680.6464763574245</v>
+        <v>403.8825158697452</v>
       </c>
       <c r="C30" t="n">
-        <v>507.8933612792417</v>
+        <v>231.1294007915624</v>
       </c>
       <c r="D30" t="n">
-        <v>360.3050546381855</v>
+        <v>83.5410941505063</v>
       </c>
       <c r="E30" t="n">
-        <v>202.6955256410403</v>
+        <v>69.45656863040554</v>
       </c>
       <c r="F30" t="n">
         <v>57.73973565765713</v>
@@ -6564,28 +6564,28 @@
         <v>2139.461332228473</v>
       </c>
       <c r="R30" t="n">
-        <v>2139.461332228473</v>
+        <v>2061.476403340059</v>
       </c>
       <c r="S30" t="n">
-        <v>2117.603282278903</v>
+        <v>1896.093349913444</v>
       </c>
       <c r="T30" t="n">
-        <v>1918.363790480088</v>
+        <v>1696.85385811463</v>
       </c>
       <c r="U30" t="n">
-        <v>1691.456068868602</v>
+        <v>1469.946136503144</v>
       </c>
       <c r="V30" t="n">
-        <v>1457.204825394203</v>
+        <v>1235.694893028744</v>
       </c>
       <c r="W30" t="n">
-        <v>1204.690333727536</v>
+        <v>983.1804013620778</v>
       </c>
       <c r="X30" t="n">
-        <v>1053.417463255334</v>
+        <v>776.6535027676553</v>
       </c>
       <c r="Y30" t="n">
-        <v>847.6890274789849</v>
+        <v>570.9250669913057</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.3272987130875</v>
+        <v>147.3272987130877</v>
       </c>
       <c r="C31" t="n">
-        <v>121.8254810475035</v>
+        <v>121.8254810475037</v>
       </c>
       <c r="D31" t="n">
-        <v>114.8398112775588</v>
+        <v>114.8398112775589</v>
       </c>
       <c r="E31" t="n">
-        <v>109.9055984180385</v>
+        <v>109.9055984180387</v>
       </c>
       <c r="F31" t="n">
-        <v>105.7952267336644</v>
+        <v>105.7952267336645</v>
       </c>
       <c r="G31" t="n">
-        <v>79.97333732831922</v>
+        <v>79.97333732831927</v>
       </c>
       <c r="H31" t="n">
-        <v>62.35253204574408</v>
+        <v>62.3525320457441</v>
       </c>
       <c r="I31" t="n">
         <v>57.73973565765713</v>
@@ -6622,49 +6622,49 @@
         <v>57.73973565765713</v>
       </c>
       <c r="K31" t="n">
-        <v>70.27676563888524</v>
+        <v>163.5328326169525</v>
       </c>
       <c r="L31" t="n">
-        <v>282.7923187107951</v>
+        <v>376.0483856888624</v>
       </c>
       <c r="M31" t="n">
-        <v>369.1374868423881</v>
+        <v>462.3935538204553</v>
       </c>
       <c r="N31" t="n">
-        <v>599.2396776694437</v>
+        <v>551.8268887396596</v>
       </c>
       <c r="O31" t="n">
-        <v>807.1780970244687</v>
+        <v>759.7653080946845</v>
       </c>
       <c r="P31" t="n">
-        <v>934.7724153134885</v>
+        <v>934.772415313489</v>
       </c>
       <c r="Q31" t="n">
-        <v>934.7724153134885</v>
+        <v>934.772415313489</v>
       </c>
       <c r="R31" t="n">
-        <v>913.880942484763</v>
+        <v>913.8809424847634</v>
       </c>
       <c r="S31" t="n">
-        <v>836.9597888844421</v>
+        <v>836.9597888844426</v>
       </c>
       <c r="T31" t="n">
-        <v>750.8651989722212</v>
+        <v>750.8651989722216</v>
       </c>
       <c r="U31" t="n">
-        <v>605.4615270300021</v>
+        <v>605.4615270300025</v>
       </c>
       <c r="V31" t="n">
-        <v>493.4952668030678</v>
+        <v>493.495266803068</v>
       </c>
       <c r="W31" t="n">
-        <v>348.037869383733</v>
+        <v>348.0378693837332</v>
       </c>
       <c r="X31" t="n">
-        <v>263.1382668685459</v>
+        <v>263.1382668685462</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.7050139135014</v>
+        <v>185.7050139135016</v>
       </c>
     </row>
     <row r="32">
@@ -6683,31 +6683,31 @@
         <v>1079.931889116923</v>
       </c>
       <c r="E32" t="n">
-        <v>836.4689776896366</v>
+        <v>836.4689776896369</v>
       </c>
       <c r="F32" t="n">
-        <v>568.5860382570439</v>
+        <v>568.5860382570443</v>
       </c>
       <c r="G32" t="n">
-        <v>293.5976315318098</v>
+        <v>293.5976315318102</v>
       </c>
       <c r="H32" t="n">
-        <v>101.0095089402537</v>
+        <v>101.0095089402539</v>
       </c>
       <c r="I32" t="n">
-        <v>57.73973565765713</v>
+        <v>57.73973565765714</v>
       </c>
       <c r="J32" t="n">
-        <v>241.9941775163063</v>
+        <v>241.9941775163061</v>
       </c>
       <c r="K32" t="n">
-        <v>570.2631210984068</v>
+        <v>570.2631210984067</v>
       </c>
       <c r="L32" t="n">
-        <v>995.635552623811</v>
+        <v>995.6355526238103</v>
       </c>
       <c r="M32" t="n">
-        <v>1468.304286770376</v>
+        <v>1468.304286770375</v>
       </c>
       <c r="N32" t="n">
         <v>1930.82795104976</v>
@@ -6722,10 +6722,10 @@
         <v>2854.008878570331</v>
       </c>
       <c r="R32" t="n">
-        <v>2886.986782882856</v>
+        <v>2886.986782882857</v>
       </c>
       <c r="S32" t="n">
-        <v>2834.685951290889</v>
+        <v>2834.68595129089</v>
       </c>
       <c r="T32" t="n">
         <v>2755.321651464883</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>895.3397007356159</v>
+        <v>625.3924482352037</v>
       </c>
       <c r="C33" t="n">
-        <v>722.586585657433</v>
+        <v>452.6393331570209</v>
       </c>
       <c r="D33" t="n">
-        <v>574.998279016377</v>
+        <v>305.0510265159647</v>
       </c>
       <c r="E33" t="n">
-        <v>417.3887500192317</v>
+        <v>290.9665009958641</v>
       </c>
       <c r="F33" t="n">
-        <v>272.4329600358485</v>
+        <v>194.8523756508173</v>
       </c>
       <c r="G33" t="n">
-        <v>135.3203200426884</v>
+        <v>57.73973565765714</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3203200426884</v>
+        <v>57.73973565765714</v>
       </c>
       <c r="I33" t="n">
-        <v>57.73973565765713</v>
+        <v>57.73973565765714</v>
       </c>
       <c r="J33" t="n">
-        <v>91.48105724067764</v>
+        <v>91.48105724067766</v>
       </c>
       <c r="K33" t="n">
         <v>275.7559632969732</v>
@@ -6822,7 +6822,7 @@
         <v>998.1634351331137</v>
       </c>
       <c r="Y33" t="n">
-        <v>918.8572483801318</v>
+        <v>792.4349993567641</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.3272987130875</v>
+        <v>147.3272987130874</v>
       </c>
       <c r="C34" t="n">
-        <v>121.8254810475035</v>
+        <v>121.8254810475033</v>
       </c>
       <c r="D34" t="n">
-        <v>114.8398112775588</v>
+        <v>114.8398112775587</v>
       </c>
       <c r="E34" t="n">
-        <v>109.9055984180385</v>
+        <v>109.9055984180384</v>
       </c>
       <c r="F34" t="n">
         <v>105.7952267336644</v>
       </c>
       <c r="G34" t="n">
-        <v>79.97333732831922</v>
+        <v>79.97333732831918</v>
       </c>
       <c r="H34" t="n">
-        <v>62.35253204574408</v>
+        <v>62.35253204574406</v>
       </c>
       <c r="I34" t="n">
-        <v>57.73973565765713</v>
+        <v>57.73973565765714</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9880302901251</v>
+        <v>57.73973565765714</v>
       </c>
       <c r="K34" t="n">
-        <v>139.5250602713532</v>
+        <v>70.27676563888527</v>
       </c>
       <c r="L34" t="n">
-        <v>352.0406133432631</v>
+        <v>142.1234628029438</v>
       </c>
       <c r="M34" t="n">
-        <v>579.0546373827074</v>
+        <v>369.1374868423882</v>
       </c>
       <c r="N34" t="n">
-        <v>668.4879723019117</v>
+        <v>470.5432853185252</v>
       </c>
       <c r="O34" t="n">
-        <v>735.7575357490853</v>
+        <v>678.4817046735503</v>
       </c>
       <c r="P34" t="n">
-        <v>910.7646429678897</v>
+        <v>853.4888118923549</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.7724153134885</v>
+        <v>934.772415313488</v>
       </c>
       <c r="R34" t="n">
-        <v>913.880942484763</v>
+        <v>913.8809424847625</v>
       </c>
       <c r="S34" t="n">
-        <v>836.9597888844421</v>
+        <v>836.9597888844417</v>
       </c>
       <c r="T34" t="n">
-        <v>750.8651989722212</v>
+        <v>750.8651989722208</v>
       </c>
       <c r="U34" t="n">
-        <v>605.4615270300021</v>
+        <v>605.4615270300018</v>
       </c>
       <c r="V34" t="n">
-        <v>493.4952668030678</v>
+        <v>493.4952668030675</v>
       </c>
       <c r="W34" t="n">
-        <v>348.037869383733</v>
+        <v>348.0378693837327</v>
       </c>
       <c r="X34" t="n">
-        <v>263.1382668685459</v>
+        <v>263.1382668685457</v>
       </c>
       <c r="Y34" t="n">
-        <v>185.7050139135014</v>
+        <v>185.7050139135012</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.1746397653428</v>
+        <v>965.1746397653415</v>
       </c>
       <c r="C35" t="n">
-        <v>819.9571146446356</v>
+        <v>819.9571146446341</v>
       </c>
       <c r="D35" t="n">
-        <v>685.2248045990234</v>
+        <v>685.2248045990219</v>
       </c>
       <c r="E35" t="n">
-        <v>523.7113804113011</v>
+        <v>523.7113804112996</v>
       </c>
       <c r="F35" t="n">
-        <v>337.7779282182723</v>
+        <v>337.7779282182708</v>
       </c>
       <c r="G35" t="n">
-        <v>144.7390087326019</v>
+        <v>144.7390087326018</v>
       </c>
       <c r="H35" t="n">
         <v>34.10037338060945</v>
@@ -6935,16 +6935,16 @@
         <v>34.10037338060945</v>
       </c>
       <c r="J35" t="n">
-        <v>77.6859593314072</v>
+        <v>77.68595933140722</v>
       </c>
       <c r="K35" t="n">
         <v>265.2860470056564</v>
       </c>
       <c r="L35" t="n">
-        <v>549.9896226232091</v>
+        <v>549.9896226232092</v>
       </c>
       <c r="M35" t="n">
-        <v>881.9895008619229</v>
+        <v>881.989500861923</v>
       </c>
       <c r="N35" t="n">
         <v>1203.844309233456</v>
@@ -6968,19 +6968,19 @@
         <v>1705.018669030472</v>
       </c>
       <c r="U35" t="n">
-        <v>1676.517761330658</v>
+        <v>1676.517761330657</v>
       </c>
       <c r="V35" t="n">
-        <v>1570.140513135631</v>
+        <v>1570.14051313563</v>
       </c>
       <c r="W35" t="n">
-        <v>1441.544178599154</v>
+        <v>1441.544178599153</v>
       </c>
       <c r="X35" t="n">
-        <v>1292.410993425692</v>
+        <v>1292.410993425691</v>
       </c>
       <c r="Y35" t="n">
-        <v>1127.292482373376</v>
+        <v>1127.292482373374</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>636.5102250763916</v>
+        <v>326.6444700050487</v>
       </c>
       <c r="C36" t="n">
-        <v>463.7571099982088</v>
+        <v>326.6444700050487</v>
       </c>
       <c r="D36" t="n">
-        <v>316.1688033571527</v>
+        <v>179.0561633639926</v>
       </c>
       <c r="E36" t="n">
-        <v>316.1688033571527</v>
+        <v>179.0561633639926</v>
       </c>
       <c r="F36" t="n">
-        <v>171.2130133737696</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="G36" t="n">
         <v>34.10037338060945</v>
@@ -7014,19 +7014,19 @@
         <v>34.10037338060945</v>
       </c>
       <c r="J36" t="n">
-        <v>67.84169496362995</v>
+        <v>67.84169496362996</v>
       </c>
       <c r="K36" t="n">
-        <v>252.1166010199254</v>
+        <v>252.1166010199255</v>
       </c>
       <c r="L36" t="n">
-        <v>501.4685884878118</v>
+        <v>252.1166010199255</v>
       </c>
       <c r="M36" t="n">
-        <v>914.4253876878906</v>
+        <v>665.0734002200045</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.417508272933</v>
+        <v>1087.065520805046</v>
       </c>
       <c r="O36" t="n">
         <v>1336.417508272933</v>
@@ -7041,25 +7041,25 @@
         <v>1705.018669030472</v>
       </c>
       <c r="S36" t="n">
-        <v>1539.635615603857</v>
+        <v>1705.018669030472</v>
       </c>
       <c r="T36" t="n">
-        <v>1340.396123805043</v>
+        <v>1619.615812249933</v>
       </c>
       <c r="U36" t="n">
-        <v>1113.488402193557</v>
+        <v>1392.708090638447</v>
       </c>
       <c r="V36" t="n">
-        <v>1104.711649435766</v>
+        <v>1158.456847164048</v>
       </c>
       <c r="W36" t="n">
-        <v>1077.671648485707</v>
+        <v>905.9423554973812</v>
       </c>
       <c r="X36" t="n">
-        <v>871.144749891285</v>
+        <v>699.4154569029587</v>
       </c>
       <c r="Y36" t="n">
-        <v>803.5527761979521</v>
+        <v>493.6870211266092</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>182.5595897171743</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="C37" t="n">
-        <v>182.5595897171743</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="D37" t="n">
-        <v>182.5595897171743</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="E37" t="n">
         <v>34.10037338060945</v>
@@ -7096,49 +7096,49 @@
         <v>34.10037338060945</v>
       </c>
       <c r="K37" t="n">
-        <v>46.63740336183756</v>
+        <v>46.63740336183757</v>
       </c>
       <c r="L37" t="n">
         <v>118.4841005258961</v>
       </c>
       <c r="M37" t="n">
-        <v>204.829268657489</v>
+        <v>204.8292686574891</v>
       </c>
       <c r="N37" t="n">
         <v>294.2626035766933</v>
       </c>
       <c r="O37" t="n">
-        <v>361.5321670238669</v>
+        <v>361.532167023867</v>
       </c>
       <c r="P37" t="n">
-        <v>395.87041833482</v>
+        <v>395.8704183348201</v>
       </c>
       <c r="Q37" t="n">
-        <v>346.633675535251</v>
+        <v>395.8704183348201</v>
       </c>
       <c r="R37" t="n">
-        <v>346.633675535251</v>
+        <v>395.8704183348201</v>
       </c>
       <c r="S37" t="n">
-        <v>346.633675535251</v>
+        <v>395.8704183348201</v>
       </c>
       <c r="T37" t="n">
-        <v>342.488572862594</v>
+        <v>391.7253156621631</v>
       </c>
       <c r="U37" t="n">
-        <v>279.0343881599388</v>
+        <v>328.2711309595079</v>
       </c>
       <c r="V37" t="n">
-        <v>249.0176151725683</v>
+        <v>298.2543579721374</v>
       </c>
       <c r="W37" t="n">
-        <v>185.5097049927974</v>
+        <v>234.7464477923666</v>
       </c>
       <c r="X37" t="n">
-        <v>182.5595897171743</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="Y37" t="n">
-        <v>182.5595897171743</v>
+        <v>34.10037338060945</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>965.1746397653425</v>
+        <v>965.1746397653427</v>
       </c>
       <c r="C38" t="n">
-        <v>819.9571146446351</v>
+        <v>819.9571146446353</v>
       </c>
       <c r="D38" t="n">
-        <v>685.2248045990229</v>
+        <v>685.2248045990232</v>
       </c>
       <c r="E38" t="n">
-        <v>523.7113804113006</v>
+        <v>523.7113804113009</v>
       </c>
       <c r="F38" t="n">
-        <v>337.7779282182719</v>
+        <v>337.7779282182721</v>
       </c>
       <c r="G38" t="n">
-        <v>144.7390087326019</v>
+        <v>144.7390087326018</v>
       </c>
       <c r="H38" t="n">
         <v>34.10037338060945</v>
@@ -7172,16 +7172,16 @@
         <v>34.10037338060945</v>
       </c>
       <c r="J38" t="n">
-        <v>77.68595933140705</v>
+        <v>77.68595933140722</v>
       </c>
       <c r="K38" t="n">
-        <v>265.2860470056562</v>
+        <v>265.2860470056564</v>
       </c>
       <c r="L38" t="n">
-        <v>549.989622623209</v>
+        <v>549.9896226232092</v>
       </c>
       <c r="M38" t="n">
-        <v>881.9895008619228</v>
+        <v>881.989500861923</v>
       </c>
       <c r="N38" t="n">
         <v>1203.844309233456</v>
@@ -7208,7 +7208,7 @@
         <v>1676.517761330658</v>
       </c>
       <c r="V38" t="n">
-        <v>1570.14051313563</v>
+        <v>1570.140513135631</v>
       </c>
       <c r="W38" t="n">
         <v>1441.544178599154</v>
@@ -7217,7 +7217,7 @@
         <v>1292.410993425692</v>
       </c>
       <c r="Y38" t="n">
-        <v>1127.292482373375</v>
+        <v>1127.292482373376</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>488.9219184353355</v>
+        <v>512.0513240969938</v>
       </c>
       <c r="C39" t="n">
-        <v>316.1688033571527</v>
+        <v>339.2982090188109</v>
       </c>
       <c r="D39" t="n">
-        <v>316.1688033571527</v>
+        <v>191.7099023777548</v>
       </c>
       <c r="E39" t="n">
-        <v>316.1688033571527</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="F39" t="n">
-        <v>171.2130133737696</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="G39" t="n">
         <v>34.10037338060945</v>
@@ -7254,49 +7254,49 @@
         <v>34.10037338060945</v>
       </c>
       <c r="K39" t="n">
-        <v>110.43069900042</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="L39" t="n">
-        <v>419.0606580921776</v>
+        <v>342.730332472367</v>
       </c>
       <c r="M39" t="n">
-        <v>832.0174572922565</v>
+        <v>755.687131672446</v>
       </c>
       <c r="N39" t="n">
-        <v>1254.009577877298</v>
+        <v>1177.679252257488</v>
       </c>
       <c r="O39" t="n">
-        <v>1588.241758872392</v>
+        <v>1453.194418431013</v>
       </c>
       <c r="P39" t="n">
-        <v>1588.241758872392</v>
+        <v>1705.018669030472</v>
       </c>
       <c r="Q39" t="n">
         <v>1705.018669030472</v>
       </c>
       <c r="R39" t="n">
-        <v>1705.018669030472</v>
+        <v>1627.033740142059</v>
       </c>
       <c r="S39" t="n">
-        <v>1705.018669030472</v>
+        <v>1627.033740142059</v>
       </c>
       <c r="T39" t="n">
-        <v>1576.164824903871</v>
+        <v>1427.794248343244</v>
       </c>
       <c r="U39" t="n">
-        <v>1349.257103292384</v>
+        <v>1352.640454013784</v>
       </c>
       <c r="V39" t="n">
-        <v>1115.005859817985</v>
+        <v>1343.863701255993</v>
       </c>
       <c r="W39" t="n">
-        <v>862.4913681513184</v>
+        <v>1091.349209589326</v>
       </c>
       <c r="X39" t="n">
-        <v>655.9644695568959</v>
+        <v>884.8223109949038</v>
       </c>
       <c r="Y39" t="n">
-        <v>655.9644695568959</v>
+        <v>679.0938752185542</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>231.7963325167434</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="C40" t="n">
-        <v>231.7963325167434</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="D40" t="n">
-        <v>182.5595897171743</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="E40" t="n">
         <v>34.10037338060945</v>
@@ -7333,49 +7333,49 @@
         <v>34.10037338060945</v>
       </c>
       <c r="K40" t="n">
-        <v>46.63740336183756</v>
+        <v>46.63740336183757</v>
       </c>
       <c r="L40" t="n">
         <v>118.4841005258961</v>
       </c>
       <c r="M40" t="n">
-        <v>204.829268657489</v>
+        <v>204.8292686574891</v>
       </c>
       <c r="N40" t="n">
         <v>294.2626035766933</v>
       </c>
       <c r="O40" t="n">
-        <v>361.5321670238669</v>
+        <v>361.532167023867</v>
       </c>
       <c r="P40" t="n">
-        <v>395.87041833482</v>
+        <v>395.8704183348201</v>
       </c>
       <c r="Q40" t="n">
-        <v>395.87041833482</v>
+        <v>395.8704183348201</v>
       </c>
       <c r="R40" t="n">
-        <v>395.87041833482</v>
+        <v>395.8704183348201</v>
       </c>
       <c r="S40" t="n">
-        <v>395.87041833482</v>
+        <v>395.8704183348201</v>
       </c>
       <c r="T40" t="n">
-        <v>391.725315662163</v>
+        <v>194.0293565260291</v>
       </c>
       <c r="U40" t="n">
-        <v>328.2711309595078</v>
+        <v>130.5751718233739</v>
       </c>
       <c r="V40" t="n">
-        <v>298.2543579721374</v>
+        <v>100.5583988360034</v>
       </c>
       <c r="W40" t="n">
-        <v>234.7464477923665</v>
+        <v>37.05048865623256</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7963325167434</v>
+        <v>34.10037338060945</v>
       </c>
       <c r="Y40" t="n">
-        <v>231.7963325167434</v>
+        <v>34.10037338060945</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.9782090117086</v>
+        <v>976.9782090117072</v>
       </c>
       <c r="C41" t="n">
-        <v>829.1754964774436</v>
+        <v>833.4293455869775</v>
       </c>
       <c r="D41" t="n">
-        <v>691.8579990182739</v>
+        <v>696.1118481278078</v>
       </c>
       <c r="E41" t="n">
-        <v>527.7593874169939</v>
+        <v>532.0132365265279</v>
       </c>
       <c r="F41" t="n">
         <v>343.4945969199414</v>
       </c>
       <c r="G41" t="n">
-        <v>147.8704900207137</v>
+        <v>147.8704900207136</v>
       </c>
       <c r="H41" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="I41" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="J41" t="n">
         <v>78.23225320596143</v>
@@ -7415,46 +7415,46 @@
         <v>265.8323408802106</v>
       </c>
       <c r="L41" t="n">
-        <v>550.5359164977633</v>
+        <v>550.5359164977634</v>
       </c>
       <c r="M41" t="n">
-        <v>882.5357947364771</v>
+        <v>909.3041945896332</v>
       </c>
       <c r="N41" t="n">
-        <v>1231.159002961167</v>
+        <v>1231.159002961166</v>
       </c>
       <c r="O41" t="n">
-        <v>1488.949020415769</v>
+        <v>1488.949020415768</v>
       </c>
       <c r="P41" t="n">
-        <v>1672.028042962426</v>
+        <v>1672.028042962425</v>
       </c>
       <c r="Q41" t="n">
-        <v>1732.333362758184</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="R41" t="n">
-        <v>1732.333362758184</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="S41" t="n">
-        <v>1732.333362758184</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="T41" t="n">
-        <v>1732.333362758184</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="U41" t="n">
-        <v>1701.247267644812</v>
+        <v>1701.247267644811</v>
       </c>
       <c r="V41" t="n">
-        <v>1592.284832036227</v>
+        <v>1592.284832036226</v>
       </c>
       <c r="W41" t="n">
-        <v>1461.103310086193</v>
+        <v>1461.103310086191</v>
       </c>
       <c r="X41" t="n">
-        <v>1309.384937499173</v>
+        <v>1309.384937499172</v>
       </c>
       <c r="Y41" t="n">
-        <v>1141.681239033299</v>
+        <v>1141.681239033298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>385.0269031291216</v>
+        <v>369.525533297365</v>
       </c>
       <c r="C42" t="n">
-        <v>327.190763879603</v>
+        <v>196.7724182191822</v>
       </c>
       <c r="D42" t="n">
-        <v>179.6024572385468</v>
+        <v>196.7724182191822</v>
       </c>
       <c r="E42" t="n">
-        <v>179.6024572385468</v>
+        <v>196.7724182191822</v>
       </c>
       <c r="F42" t="n">
-        <v>34.64666725516367</v>
+        <v>51.81662823579902</v>
       </c>
       <c r="G42" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="H42" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="I42" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="J42" t="n">
-        <v>68.38798883818419</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="K42" t="n">
-        <v>252.6628948944797</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="L42" t="n">
-        <v>561.2928539862373</v>
+        <v>343.2766263469213</v>
       </c>
       <c r="M42" t="n">
-        <v>600.7475137228998</v>
+        <v>756.2334255470003</v>
       </c>
       <c r="N42" t="n">
-        <v>1029.50002100555</v>
+        <v>1184.98593282965</v>
       </c>
       <c r="O42" t="n">
-        <v>1363.732202000644</v>
+        <v>1519.218113824744</v>
       </c>
       <c r="P42" t="n">
-        <v>1615.556452600103</v>
+        <v>1615.556452600102</v>
       </c>
       <c r="Q42" t="n">
-        <v>1732.333362758184</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="R42" t="n">
-        <v>1654.34843386977</v>
+        <v>1654.348433869769</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.34843386977</v>
+        <v>1488.965380443154</v>
       </c>
       <c r="T42" t="n">
-        <v>1455.108942070955</v>
+        <v>1289.72588864434</v>
       </c>
       <c r="U42" t="n">
-        <v>1228.201220459469</v>
+        <v>1062.818167032853</v>
       </c>
       <c r="V42" t="n">
-        <v>993.94997698507</v>
+        <v>828.5669235584542</v>
       </c>
       <c r="W42" t="n">
-        <v>964.3247886214541</v>
+        <v>576.0524318917875</v>
       </c>
       <c r="X42" t="n">
-        <v>757.7978900270316</v>
+        <v>369.525533297365</v>
       </c>
       <c r="Y42" t="n">
-        <v>552.069454250682</v>
+        <v>369.525533297365</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>203.6734883977923</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="C43" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="D43" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="E43" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="F43" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="G43" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="H43" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="I43" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="J43" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="K43" t="n">
-        <v>47.18369723639179</v>
+        <v>47.18369723639178</v>
       </c>
       <c r="L43" t="n">
         <v>119.0303944004503</v>
@@ -7588,31 +7588,31 @@
         <v>396.4167122093743</v>
       </c>
       <c r="Q43" t="n">
-        <v>396.4167122093743</v>
+        <v>335.8256985508514</v>
       </c>
       <c r="R43" t="n">
-        <v>396.4167122093743</v>
+        <v>335.8256985508514</v>
       </c>
       <c r="S43" t="n">
-        <v>396.4167122093743</v>
+        <v>335.8256985508514</v>
       </c>
       <c r="T43" t="n">
-        <v>389.6864221231597</v>
+        <v>329.0954084646367</v>
       </c>
       <c r="U43" t="n">
-        <v>323.6470500069469</v>
+        <v>263.0560363484239</v>
       </c>
       <c r="V43" t="n">
-        <v>291.0450896060187</v>
+        <v>230.4540759474958</v>
       </c>
       <c r="W43" t="n">
-        <v>224.9519920126903</v>
+        <v>164.3609783541673</v>
       </c>
       <c r="X43" t="n">
-        <v>219.4166893235095</v>
+        <v>158.8256756649865</v>
       </c>
       <c r="Y43" t="n">
-        <v>203.6734883977923</v>
+        <v>34.64666725516366</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.9782090117083</v>
+        <v>976.9782090117076</v>
       </c>
       <c r="C44" t="n">
-        <v>829.1754964774432</v>
+        <v>829.1754964774424</v>
       </c>
       <c r="D44" t="n">
-        <v>696.1118481278079</v>
+        <v>691.8579990182726</v>
       </c>
       <c r="E44" t="n">
-        <v>532.0132365265279</v>
+        <v>527.7593874169927</v>
       </c>
       <c r="F44" t="n">
-        <v>343.4945969199414</v>
+        <v>339.2407478104062</v>
       </c>
       <c r="G44" t="n">
-        <v>147.8704900207137</v>
+        <v>143.6166409111787</v>
       </c>
       <c r="H44" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="I44" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="J44" t="n">
         <v>78.23225320596143</v>
@@ -7652,46 +7652,46 @@
         <v>265.8323408802106</v>
       </c>
       <c r="L44" t="n">
-        <v>550.5359164977633</v>
+        <v>550.5359164977634</v>
       </c>
       <c r="M44" t="n">
-        <v>909.3041945896342</v>
+        <v>882.5357947364773</v>
       </c>
       <c r="N44" t="n">
-        <v>1231.159002961167</v>
+        <v>1204.39060310801</v>
       </c>
       <c r="O44" t="n">
-        <v>1488.949020415769</v>
+        <v>1462.180620562613</v>
       </c>
       <c r="P44" t="n">
-        <v>1672.028042962426</v>
+        <v>1645.25964310927</v>
       </c>
       <c r="Q44" t="n">
-        <v>1732.333362758184</v>
+        <v>1705.564962905027</v>
       </c>
       <c r="R44" t="n">
-        <v>1732.333362758184</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="S44" t="n">
-        <v>1732.333362758184</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="T44" t="n">
-        <v>1732.333362758184</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="U44" t="n">
-        <v>1701.247267644812</v>
+        <v>1701.247267644811</v>
       </c>
       <c r="V44" t="n">
-        <v>1592.284832036227</v>
+        <v>1592.284832036226</v>
       </c>
       <c r="W44" t="n">
         <v>1461.103310086192</v>
       </c>
       <c r="X44" t="n">
-        <v>1309.384937499173</v>
+        <v>1309.384937499172</v>
       </c>
       <c r="Y44" t="n">
-        <v>1141.681239033299</v>
+        <v>1141.681239033298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>567.0487966949211</v>
+        <v>576.0524318917875</v>
       </c>
       <c r="C45" t="n">
-        <v>394.2956816167382</v>
+        <v>403.2993168136047</v>
       </c>
       <c r="D45" t="n">
-        <v>394.2956816167382</v>
+        <v>337.2119862356921</v>
       </c>
       <c r="E45" t="n">
-        <v>394.2956816167382</v>
+        <v>179.6024572385468</v>
       </c>
       <c r="F45" t="n">
-        <v>249.3398916333551</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="G45" t="n">
-        <v>112.227251640195</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="H45" t="n">
-        <v>112.227251640195</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="I45" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="J45" t="n">
-        <v>68.38798883818419</v>
+        <v>68.38798883818417</v>
       </c>
       <c r="K45" t="n">
         <v>252.6628948944797</v>
       </c>
       <c r="L45" t="n">
-        <v>561.2928539862373</v>
+        <v>252.6628948944797</v>
       </c>
       <c r="M45" t="n">
-        <v>974.2496531863162</v>
+        <v>665.6196940945586</v>
       </c>
       <c r="N45" t="n">
-        <v>1403.002160468967</v>
+        <v>1094.372201377209</v>
       </c>
       <c r="O45" t="n">
-        <v>1480.509112158724</v>
+        <v>1363.732202000643</v>
       </c>
       <c r="P45" t="n">
-        <v>1732.333362758184</v>
+        <v>1615.556452600102</v>
       </c>
       <c r="Q45" t="n">
-        <v>1732.333362758184</v>
+        <v>1732.333362758183</v>
       </c>
       <c r="R45" t="n">
-        <v>1732.333362758184</v>
+        <v>1654.348433869769</v>
       </c>
       <c r="S45" t="n">
-        <v>1732.333362758184</v>
+        <v>1488.965380443154</v>
       </c>
       <c r="T45" t="n">
-        <v>1732.333362758184</v>
+        <v>1289.72588864434</v>
       </c>
       <c r="U45" t="n">
-        <v>1633.112417328319</v>
+        <v>1062.818167032853</v>
       </c>
       <c r="V45" t="n">
-        <v>1398.86117385392</v>
+        <v>828.5669235584542</v>
       </c>
       <c r="W45" t="n">
-        <v>1146.346682187253</v>
+        <v>576.0524318917875</v>
       </c>
       <c r="X45" t="n">
-        <v>939.8197835928311</v>
+        <v>576.0524318917875</v>
       </c>
       <c r="Y45" t="n">
-        <v>734.0913478164815</v>
+        <v>576.0524318917875</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.1058835917285</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="C46" t="n">
-        <v>183.1058835917285</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="D46" t="n">
-        <v>183.1058835917285</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="E46" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="F46" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="G46" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="H46" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="I46" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="J46" t="n">
-        <v>34.64666725516367</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="K46" t="n">
-        <v>47.18369723639179</v>
+        <v>47.18369723639178</v>
       </c>
       <c r="L46" t="n">
         <v>119.0303944004503</v>
@@ -7831,25 +7831,25 @@
         <v>396.4167122093743</v>
       </c>
       <c r="S46" t="n">
-        <v>396.4167122093743</v>
+        <v>211.6466901410285</v>
       </c>
       <c r="T46" t="n">
-        <v>389.6864221231597</v>
+        <v>204.9164000548138</v>
       </c>
       <c r="U46" t="n">
-        <v>323.6470500069469</v>
+        <v>138.877027938601</v>
       </c>
       <c r="V46" t="n">
-        <v>291.0450896060187</v>
+        <v>106.2750675376729</v>
       </c>
       <c r="W46" t="n">
-        <v>224.9519920126903</v>
+        <v>40.1819699443444</v>
       </c>
       <c r="X46" t="n">
-        <v>219.4166893235095</v>
+        <v>34.64666725516366</v>
       </c>
       <c r="Y46" t="n">
-        <v>183.1058835917285</v>
+        <v>34.64666725516366</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.8604797789565</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
         <v>337.1112290740114</v>
@@ -8772,16 +8772,16 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>325.797220101586</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>83.5632401042113</v>
+        <v>481.0482427496306</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>72.00854841639092</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
@@ -9006,10 +9006,10 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>189.3062772736804</v>
+        <v>88.90757774934896</v>
       </c>
       <c r="L15" t="n">
-        <v>73.92652568957976</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
         <v>484.3332662999999</v>
@@ -9018,13 +9018,13 @@
         <v>481.0482427496305</v>
       </c>
       <c r="O15" t="n">
-        <v>409.6168120477987</v>
+        <v>316.2245530532642</v>
       </c>
       <c r="P15" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5239043381313</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9170,7 +9170,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M17" t="n">
-        <v>467.4940748325456</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N17" t="n">
         <v>454.8408013884635</v>
@@ -9243,22 +9243,22 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>131.9267737461065</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>86.84826365458078</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>481.0482427496305</v>
+        <v>481.0482427496306</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>76.83334948709063</v>
       </c>
       <c r="Q18" t="n">
         <v>218.4803792452831</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789565</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
         <v>337.1112290740114</v>
@@ -9477,7 +9477,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05253374087314</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9489,16 +9489,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>235.6018580245151</v>
+        <v>481.0482427496305</v>
       </c>
       <c r="O21" t="n">
-        <v>409.6168120477987</v>
+        <v>72.00854841639092</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>271.3245403715231</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.5239043381313</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9714,28 +9714,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>97.05253374087314</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>88.90757774934896</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>341.2161935530247</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>481.0482427496305</v>
+        <v>421.7381267682481</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>76.83334948709066</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5239043381313</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10668,7 +10668,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>325.7972201015862</v>
+        <v>73.92652568957973</v>
       </c>
       <c r="M36" t="n">
         <v>484.3332662999999</v>
@@ -10677,7 +10677,7 @@
         <v>481.0482427496306</v>
       </c>
       <c r="O36" t="n">
-        <v>72.00854841639095</v>
+        <v>323.8792428283971</v>
       </c>
       <c r="P36" t="n">
         <v>331.2012793855346</v>
@@ -10902,7 +10902,7 @@
         <v>97.05253374087314</v>
       </c>
       <c r="K39" t="n">
-        <v>166.0089167592586</v>
+        <v>88.90757774934896</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10914,13 +10914,13 @@
         <v>481.0482427496306</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>350.3066960664161</v>
       </c>
       <c r="P39" t="n">
-        <v>76.83334948709066</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>100.5239043381313</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11136,25 +11136,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>97.05253374087314</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0438464930818</v>
+        <v>88.90757774934896</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>107.0583779531147</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>487.8769161815584</v>
+        <v>487.8769161815582</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>331.2012793855346</v>
+        <v>174.1448027955334</v>
       </c>
       <c r="Q42" t="n">
         <v>218.4803792452831</v>
@@ -11379,22 +11379,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>385.6739591155975</v>
+        <v>73.92652568957973</v>
       </c>
       <c r="M45" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>487.8769161815584</v>
+        <v>487.8769161815582</v>
       </c>
       <c r="O45" t="n">
-        <v>150.2983986080652</v>
+        <v>344.0893571269303</v>
       </c>
       <c r="P45" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>100.5239043381313</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>292.1409409833357</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>85.15733437294061</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.73949387512455</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5.349100942168024</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>206.3458864055992</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.3427818836344</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>261.5290748744748</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>244.7977605620224</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>97.20769752212296</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.1065283636206</v>
       </c>
       <c r="G14" t="n">
-        <v>62.1036876025014</v>
+        <v>292.1409409833356</v>
       </c>
       <c r="H14" t="n">
-        <v>210.5646596909946</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>98.47307515310011</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2483093153382</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.3458864055991</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>228.3427818836344</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>248.6742640142492</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.4997366343156</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -25628,7 +25628,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.211310618440365</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>4.211310618438546</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>4.211310618439057</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>4.211310618439654</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>791852.4683118468</v>
+        <v>791852.4683118472</v>
       </c>
       <c r="C2" t="n">
-        <v>791852.4683118471</v>
+        <v>791852.468311847</v>
       </c>
       <c r="D2" t="n">
         <v>791852.468311847</v>
       </c>
       <c r="E2" t="n">
-        <v>681403.1076404385</v>
+        <v>681403.1076404382</v>
       </c>
       <c r="F2" t="n">
         <v>681403.1076404384</v>
       </c>
       <c r="G2" t="n">
-        <v>793571.4233995628</v>
+        <v>793571.4233995629</v>
       </c>
       <c r="H2" t="n">
-        <v>793571.4233995631</v>
+        <v>793571.4233995632</v>
       </c>
       <c r="I2" t="n">
-        <v>793571.4233995628</v>
+        <v>793571.4233995633</v>
       </c>
       <c r="J2" t="n">
-        <v>793571.423399562</v>
+        <v>793571.4233995622</v>
       </c>
       <c r="K2" t="n">
-        <v>793571.4233995624</v>
+        <v>793571.4233995625</v>
       </c>
       <c r="L2" t="n">
-        <v>793571.4233995619</v>
+        <v>793571.4233995621</v>
       </c>
       <c r="M2" t="n">
-        <v>793571.4233995628</v>
+        <v>793571.4233995627</v>
       </c>
       <c r="N2" t="n">
-        <v>793571.4233995628</v>
+        <v>793571.4233995629</v>
       </c>
       <c r="O2" t="n">
-        <v>793244.583582466</v>
+        <v>793244.5835824659</v>
       </c>
       <c r="P2" t="n">
-        <v>793244.5835824661</v>
+        <v>793244.5835824662</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330237.1767665687</v>
+        <v>330237.1767665688</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>80825.92855401775</v>
+        <v>80825.92855401768</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80825.92855401775</v>
+        <v>80825.92855401774</v>
       </c>
       <c r="M3" t="n">
         <v>97490.56653188463</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32441.73285833076</v>
+        <v>32441.73285833074</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26454,10 +26454,10 @@
         <v>369730.9449494623</v>
       </c>
       <c r="O4" t="n">
-        <v>369414.9143190501</v>
+        <v>369414.91431905</v>
       </c>
       <c r="P4" t="n">
-        <v>369414.9143190501</v>
+        <v>369414.91431905</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>39043.47071616944</v>
+        <v>39043.47071616945</v>
       </c>
       <c r="F5" t="n">
-        <v>39043.47071616944</v>
+        <v>39043.47071616945</v>
       </c>
       <c r="G5" t="n">
         <v>47537.16445067909</v>
@@ -26491,25 +26491,25 @@
         <v>47537.16445067909</v>
       </c>
       <c r="J5" t="n">
-        <v>58682.56245291986</v>
+        <v>58682.56245291987</v>
       </c>
       <c r="K5" t="n">
         <v>58682.56245291986</v>
       </c>
       <c r="L5" t="n">
-        <v>58682.56245291986</v>
+        <v>58682.56245291988</v>
       </c>
       <c r="M5" t="n">
-        <v>47537.16445067909</v>
+        <v>47537.1644506791</v>
       </c>
       <c r="N5" t="n">
-        <v>47537.16445067909</v>
+        <v>47537.1644506791</v>
       </c>
       <c r="O5" t="n">
-        <v>47737.18701587663</v>
+        <v>47737.18701587662</v>
       </c>
       <c r="P5" t="n">
-        <v>47737.18701587663</v>
+        <v>47737.18701587662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325604.3140499548</v>
+        <v>325599.9064728072</v>
       </c>
       <c r="C6" t="n">
-        <v>325604.3140499551</v>
+        <v>325599.906472807</v>
       </c>
       <c r="D6" t="n">
-        <v>325604.3140499549</v>
+        <v>325599.9064728069</v>
       </c>
       <c r="E6" t="n">
-        <v>7794.205751944231</v>
+        <v>7506.594685894836</v>
       </c>
       <c r="F6" t="n">
-        <v>338031.3825185128</v>
+        <v>337743.7714524638</v>
       </c>
       <c r="G6" t="n">
-        <v>295477.3854454036</v>
+        <v>295477.3854454039</v>
       </c>
       <c r="H6" t="n">
-        <v>376303.3139994217</v>
+        <v>376303.3139994218</v>
       </c>
       <c r="I6" t="n">
-        <v>376303.3139994214</v>
+        <v>376303.3139994219</v>
       </c>
       <c r="J6" t="n">
-        <v>255978.5621153974</v>
+        <v>255978.5621153976</v>
       </c>
       <c r="K6" t="n">
-        <v>366138.1526103976</v>
+        <v>366138.1526103977</v>
       </c>
       <c r="L6" t="n">
-        <v>285312.2240563794</v>
+        <v>285312.2240563796</v>
       </c>
       <c r="M6" t="n">
-        <v>278812.7474675368</v>
+        <v>278812.7474675367</v>
       </c>
       <c r="N6" t="n">
-        <v>376303.3139994214</v>
+        <v>376303.3139994215</v>
       </c>
       <c r="O6" t="n">
-        <v>343650.7493892085</v>
+        <v>343649.9113383954</v>
       </c>
       <c r="P6" t="n">
-        <v>376092.4822475394</v>
+        <v>376091.6441967265</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>122.1873351169202</v>
       </c>
       <c r="G2" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="H2" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="I2" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="J2" t="n">
         <v>142.0897534422741</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643076</v>
       </c>
       <c r="F3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643076</v>
       </c>
       <c r="G3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643076</v>
       </c>
       <c r="H3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643076</v>
       </c>
       <c r="I3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643076</v>
       </c>
       <c r="J3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643076</v>
       </c>
       <c r="K3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643076</v>
       </c>
       <c r="L3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643076</v>
       </c>
       <c r="M3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643076</v>
       </c>
       <c r="N3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643076</v>
       </c>
       <c r="O3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643076</v>
       </c>
       <c r="P3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643076</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576181</v>
       </c>
       <c r="F4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576181</v>
       </c>
       <c r="G4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576181</v>
       </c>
       <c r="H4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576181</v>
       </c>
       <c r="I4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576181</v>
       </c>
       <c r="J4" t="n">
         <v>721.7466957207141</v>
@@ -26817,7 +26817,7 @@
         <v>721.7466957207141</v>
       </c>
       <c r="L4" t="n">
-        <v>721.7466957207141</v>
+        <v>721.7466957207142</v>
       </c>
       <c r="M4" t="n">
         <v>426.2546672576181</v>
@@ -26826,10 +26826,10 @@
         <v>426.2546672576181</v>
       </c>
       <c r="O4" t="n">
-        <v>433.0833406895459</v>
+        <v>433.0833406895457</v>
       </c>
       <c r="P4" t="n">
-        <v>433.0833406895459</v>
+        <v>433.0833406895457</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>122.1873351169202</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>101.0324106925222</v>
+        <v>101.0324106925221</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.05734274975192</v>
+        <v>41.05734274975198</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.49800721032987</v>
+        <v>38.49800721032993</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.9642142643075</v>
+        <v>130.9642142643076</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576181</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.828673431927825</v>
+        <v>6.828673431927541</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>122.1873351169202</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>101.0324106925222</v>
+        <v>101.0324106925221</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.05734274975192</v>
+        <v>41.05734274975198</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576181</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.90879062790513</v>
+        <v>122.1873351169202</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>122.1873351169202</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6.104012086723969</v>
+      </c>
+      <c r="G12" t="n">
         <v>122.1873351169202</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>107.7419192975101</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.80477854118097</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,7 +28220,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>122.1873351169202</v>
       </c>
       <c r="U12" t="n">
         <v>122.1873351169202</v>
@@ -28229,13 +28229,13 @@
         <v>122.1873351169202</v>
       </c>
       <c r="W12" t="n">
-        <v>122.1873351169202</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>122.1873351169202</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>122.1873351169202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>83.30909168625314</v>
+      </c>
+      <c r="C15" t="n">
         <v>122.1873351169202</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>122.1873351169202</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>122.1873351169202</v>
       </c>
       <c r="F15" t="n">
         <v>122.1873351169202</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>122.1873351169202</v>
       </c>
       <c r="H15" t="n">
         <v>107.7419192975101</v>
@@ -28457,19 +28457,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>122.1873351169202</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>122.1873351169202</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>83.3090916862532</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>122.1873351169202</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>122.1873351169202</v>
@@ -28518,7 +28518,7 @@
         <v>122.1873351169202</v>
       </c>
       <c r="N16" t="n">
-        <v>122.1873351169202</v>
+        <v>122.1873351169196</v>
       </c>
       <c r="O16" t="n">
         <v>122.1873351169202</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="C17" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="D17" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="E17" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="F17" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="G17" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="H17" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="I17" t="n">
-        <v>184.9268289920448</v>
+        <v>184.9268289920447</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28618,19 +28618,19 @@
         <v>220.6604102700203</v>
       </c>
       <c r="U17" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="V17" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="W17" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="X17" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
     </row>
     <row r="18">
@@ -28646,19 +28646,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>71.42910196417652</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.7419192975101</v>
       </c>
       <c r="I18" t="n">
         <v>76.80477854118097</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.20507959952954</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>163.7292228923487</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,16 +28700,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>223.2197458094424</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>223.2197458094424</v>
+        <v>96.81577217571962</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="19">
@@ -28743,7 +28743,7 @@
         <v>146.6564218664802</v>
       </c>
       <c r="J19" t="n">
-        <v>72.14198108624583</v>
+        <v>72.14198108624582</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.98510352193775</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>162.7723115427124</v>
@@ -28773,22 +28773,22 @@
         <v>218.2416955065918</v>
       </c>
       <c r="T19" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="U19" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="V19" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="W19" t="n">
-        <v>223.2197458094424</v>
+        <v>87.4858497866077</v>
       </c>
       <c r="X19" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="Y19" t="n">
-        <v>23.02967432299553</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="C20" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="D20" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="E20" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="F20" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="G20" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="H20" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="I20" t="n">
-        <v>184.9268289920448</v>
+        <v>184.9268289920447</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28855,19 +28855,19 @@
         <v>220.6604102700203</v>
       </c>
       <c r="U20" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="V20" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="W20" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="X20" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
     </row>
     <row r="21">
@@ -28892,10 +28892,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7415135932285</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7419192975101</v>
       </c>
       <c r="I21" t="n">
         <v>76.80477854118097</v>
@@ -28934,19 +28934,19 @@
         <v>197.2470968808262</v>
       </c>
       <c r="U21" t="n">
-        <v>223.2197458094424</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="W21" t="n">
-        <v>144.0035938692563</v>
+        <v>104.1913123971034</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28980,7 +28980,7 @@
         <v>146.6564218664802</v>
       </c>
       <c r="J22" t="n">
-        <v>72.14198108624583</v>
+        <v>72.14198108624582</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,28 +29001,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>59.98510352193775</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>162.7723115427124</v>
       </c>
       <c r="S22" t="n">
-        <v>22.52269596181921</v>
+        <v>218.2416955065918</v>
       </c>
       <c r="T22" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="U22" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="V22" t="n">
-        <v>223.2197458094424</v>
+        <v>87.48584978660773</v>
       </c>
       <c r="W22" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="X22" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="C23" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="D23" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="E23" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="F23" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="G23" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="H23" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="I23" t="n">
-        <v>184.9268289920448</v>
+        <v>184.9268289920447</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29092,19 +29092,19 @@
         <v>220.6604102700203</v>
       </c>
       <c r="U23" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="V23" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="W23" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="X23" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
     </row>
     <row r="24">
@@ -29117,16 +29117,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -29162,25 +29162,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.20507959952954</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7292228923487</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>223.2197458094424</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="X24" t="n">
-        <v>71.42910196417702</v>
+        <v>65.01790054737324</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>146.6564218664802</v>
       </c>
       <c r="J25" t="n">
-        <v>72.14198108624583</v>
+        <v>72.14198108624582</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>59.98510352193775</v>
+        <v>59.98510352193773</v>
       </c>
       <c r="R25" t="n">
         <v>162.7723115427124</v>
@@ -29247,19 +29247,19 @@
         <v>218.2416955065918</v>
       </c>
       <c r="T25" t="n">
-        <v>223.2197458094424</v>
+        <v>27.50074626467</v>
       </c>
       <c r="U25" t="n">
-        <v>27.50074626466977</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="V25" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="W25" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="X25" t="n">
-        <v>223.2197458094424</v>
+        <v>223.2197458094423</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -29299,7 +29299,7 @@
         <v>142.0897534422741</v>
       </c>
       <c r="K26" t="n">
-        <v>142.0897534422737</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="L26" t="n">
         <v>142.0897534422741</v>
@@ -29354,7 +29354,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>131.9065674405283</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29369,10 +29369,10 @@
         <v>135.7415135932285</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.7419192975101</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>76.80477854118097</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>77.20507959952954</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>142.0897534422741</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>97.15843223741552</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>142.0897534422741</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29454,28 +29454,28 @@
         <v>142.0897534422741</v>
       </c>
       <c r="J28" t="n">
-        <v>72.14198108624583</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>142.0897534422741</v>
       </c>
-      <c r="L28" t="n">
+      <c r="O28" t="n">
+        <v>84.23537861850184</v>
+      </c>
+      <c r="P28" t="n">
         <v>142.0897534422741</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>94.1980474525927</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
         <v>142.0897534422741</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>59.98510352193775</v>
       </c>
       <c r="R28" t="n">
         <v>142.0897534422741</v>
@@ -29597,10 +29597,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>131.9065674405284</v>
       </c>
       <c r="G30" t="n">
         <v>135.7415135932285</v>
@@ -29636,10 +29636,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.20507959952954</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>142.0897534422741</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -29654,7 +29654,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>54.7014878409986</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29691,10 +29691,10 @@
         <v>142.0897534422741</v>
       </c>
       <c r="J31" t="n">
-        <v>72.14198108624583</v>
+        <v>72.14198108624582</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.19804745259316</v>
       </c>
       <c r="L31" t="n">
         <v>142.0897534422741</v>
@@ -29703,16 +29703,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>142.0897534422741</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>142.0897534422741</v>
       </c>
       <c r="P31" t="n">
-        <v>94.19804745259266</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.98510352193775</v>
+        <v>59.98510352193773</v>
       </c>
       <c r="R31" t="n">
         <v>142.0897534422741</v>
@@ -29788,7 +29788,7 @@
         <v>142.0897534422741</v>
       </c>
       <c r="P32" t="n">
-        <v>142.0897534422736</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="Q32" t="n">
         <v>142.0897534422741</v>
@@ -29825,19 +29825,19 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
         <v>142.0897534422741</v>
       </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>48.35324799195297</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>107.7419192975101</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.80477854118097</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29894,7 +29894,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>125.1580265331339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29928,28 +29928,28 @@
         <v>142.0897534422741</v>
       </c>
       <c r="J34" t="n">
-        <v>142.0897534422741</v>
+        <v>72.14198108624582</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>142.0897534422741</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>142.0897534422741</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>12.09339753225534</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="P34" t="n">
         <v>142.0897534422741</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.23537861850221</v>
+        <v>142.0897534422741</v>
       </c>
       <c r="R34" t="n">
         <v>142.0897534422741</v>
@@ -30004,7 +30004,7 @@
         <v>223.2197458094424</v>
       </c>
       <c r="I35" t="n">
-        <v>184.9268289920448</v>
+        <v>184.9268289920447</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30065,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7415135932285</v>
       </c>
       <c r="H36" t="n">
         <v>107.7419192975101</v>
@@ -30113,25 +30113,25 @@
         <v>77.20507959952954</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.7292228923487</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>112.6982686680927</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>223.2197458094424</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>223.2197458094424</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>136.7550974621865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30150,7 +30150,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
@@ -30165,7 +30165,7 @@
         <v>146.6564218664802</v>
       </c>
       <c r="J37" t="n">
-        <v>72.14198108624583</v>
+        <v>72.14198108624582</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>11.24072815036437</v>
+        <v>59.98510352193773</v>
       </c>
       <c r="R37" t="n">
         <v>162.7723115427124</v>
@@ -30207,7 +30207,7 @@
         <v>223.2197458094424</v>
       </c>
       <c r="X37" t="n">
-        <v>223.2197458094424</v>
+        <v>27.50074626466974</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -30241,7 +30241,7 @@
         <v>223.2197458094424</v>
       </c>
       <c r="I38" t="n">
-        <v>184.9268289920448</v>
+        <v>184.9268289920447</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30305,16 +30305,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.7415135932285</v>
       </c>
       <c r="H39" t="n">
         <v>107.7419192975101</v>
@@ -30347,19 +30347,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.20507959952954</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>163.7292228923487</v>
       </c>
       <c r="T39" t="n">
-        <v>69.68179119549062</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>150.2363880092053</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>223.2197458094424</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30384,10 +30384,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>100.261191142946</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
         <v>146.1590214098045</v>
@@ -30402,7 +30402,7 @@
         <v>146.6564218664802</v>
       </c>
       <c r="J40" t="n">
-        <v>72.14198108624583</v>
+        <v>72.14198108624582</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>59.98510352193775</v>
+        <v>59.98510352193773</v>
       </c>
       <c r="R40" t="n">
         <v>162.7723115427124</v>
@@ -30432,7 +30432,7 @@
         <v>218.2416955065918</v>
       </c>
       <c r="T40" t="n">
-        <v>223.2197458094424</v>
+        <v>27.50074626466977</v>
       </c>
       <c r="U40" t="n">
         <v>223.2197458094424</v>
@@ -30478,7 +30478,7 @@
         <v>220.6604102700203</v>
       </c>
       <c r="I41" t="n">
-        <v>184.9268289920448</v>
+        <v>184.9268289920447</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30490,10 +30490,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>27.03878773046051</v>
       </c>
       <c r="N41" t="n">
-        <v>27.03878773046176</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30536,13 +30536,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>113.7678060703776</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
@@ -30551,7 +30551,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7415135932285</v>
+        <v>118.7432522223995</v>
       </c>
       <c r="H42" t="n">
         <v>107.7419192975101</v>
@@ -30587,7 +30587,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>163.7292228923487</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30599,13 +30599,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>220.6604102700203</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -30618,7 +30618,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
         <v>149.0055665145194</v>
@@ -30639,7 +30639,7 @@
         <v>146.6564218664802</v>
       </c>
       <c r="J43" t="n">
-        <v>72.14198108624583</v>
+        <v>72.14198108624582</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>59.98510352193775</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>162.7723115427124</v>
@@ -30684,7 +30684,7 @@
         <v>220.6604102700203</v>
       </c>
       <c r="Y43" t="n">
-        <v>203.1629049513082</v>
+        <v>95.81145554204359</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>220.6604102700203</v>
       </c>
       <c r="I44" t="n">
-        <v>184.9268289920448</v>
+        <v>184.9268289920447</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>27.03878773046176</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.7787389851773</v>
+        <v>135.8175267156378</v>
       </c>
       <c r="S44" t="n">
         <v>193.8675767183215</v>
@@ -30773,28 +30773,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>80.68596630251214</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7415135932285</v>
       </c>
       <c r="H45" t="n">
         <v>107.7419192975101</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.80477854118097</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.20507959952954</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7292228923487</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>197.2470968808262</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>126.4099084198059</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30839,10 +30839,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -30861,7 +30861,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
@@ -30876,7 +30876,7 @@
         <v>146.6564218664802</v>
       </c>
       <c r="J46" t="n">
-        <v>72.14198108624583</v>
+        <v>72.14198108624582</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,13 +30897,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>59.98510352193775</v>
+        <v>59.98510352193773</v>
       </c>
       <c r="R46" t="n">
         <v>162.7723115427124</v>
       </c>
       <c r="S46" t="n">
-        <v>218.2416955065918</v>
+        <v>35.31937365892938</v>
       </c>
       <c r="T46" t="n">
         <v>220.6604102700203</v>
@@ -30921,7 +30921,7 @@
         <v>220.6604102700203</v>
       </c>
       <c r="Y46" t="n">
-        <v>182.800976193305</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5264893035751051</v>
+        <v>0.5264893035751054</v>
       </c>
       <c r="H11" t="n">
-        <v>5.391908580238548</v>
+        <v>5.39190858023855</v>
       </c>
       <c r="I11" t="n">
-        <v>20.29747887607926</v>
+        <v>20.29747887607927</v>
       </c>
       <c r="J11" t="n">
-        <v>44.68512152930762</v>
+        <v>44.68512152930764</v>
       </c>
       <c r="K11" t="n">
-        <v>66.97141374964184</v>
+        <v>66.97141374964187</v>
       </c>
       <c r="L11" t="n">
-        <v>83.08396077392848</v>
+        <v>83.08396077392852</v>
       </c>
       <c r="M11" t="n">
-        <v>92.44691492638225</v>
+        <v>92.44691492638229</v>
       </c>
       <c r="N11" t="n">
-        <v>93.94280266016503</v>
+        <v>93.94280266016507</v>
       </c>
       <c r="O11" t="n">
-        <v>88.70752464774007</v>
+        <v>88.70752464774012</v>
       </c>
       <c r="P11" t="n">
-        <v>75.70981996572965</v>
+        <v>75.70981996572968</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.85492178144618</v>
+        <v>56.8549217814462</v>
       </c>
       <c r="R11" t="n">
-        <v>33.07208371569973</v>
+        <v>33.07208371569975</v>
       </c>
       <c r="S11" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521773</v>
       </c>
       <c r="T11" t="n">
-        <v>2.304706926400024</v>
+        <v>2.304706926400025</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04211914428600841</v>
+        <v>0.04211914428600842</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2816966118137935</v>
+        <v>0.2816966118137936</v>
       </c>
       <c r="H12" t="n">
-        <v>2.720596224622691</v>
+        <v>2.720596224622692</v>
       </c>
       <c r="I12" t="n">
-        <v>9.6987649242907</v>
+        <v>9.698764924290703</v>
       </c>
       <c r="J12" t="n">
-        <v>26.61415225912688</v>
+        <v>26.61415225912689</v>
       </c>
       <c r="K12" t="n">
-        <v>45.48782525065104</v>
+        <v>45.48782525065106</v>
       </c>
       <c r="L12" t="n">
-        <v>61.16399459579759</v>
+        <v>61.16399459579761</v>
       </c>
       <c r="M12" t="n">
-        <v>71.37549677404759</v>
+        <v>71.37549677404762</v>
       </c>
       <c r="N12" t="n">
-        <v>73.26459378923747</v>
+        <v>73.26459378923749</v>
       </c>
       <c r="O12" t="n">
-        <v>67.02278991694236</v>
+        <v>67.02278991694239</v>
       </c>
       <c r="P12" t="n">
-        <v>53.79169774188133</v>
+        <v>53.79169774188136</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.95832539573968</v>
+        <v>35.9583253957397</v>
       </c>
       <c r="R12" t="n">
-        <v>17.48990016156168</v>
+        <v>17.48990016156169</v>
       </c>
       <c r="S12" t="n">
-        <v>5.232391013295679</v>
+        <v>5.232391013295681</v>
       </c>
       <c r="T12" t="n">
-        <v>1.135435027442439</v>
+        <v>1.13543502744244</v>
       </c>
       <c r="U12" t="n">
         <v>0.01853267182985485</v>
@@ -31908,43 +31908,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.236164976542194</v>
       </c>
       <c r="H13" t="n">
-        <v>2.099721336893325</v>
+        <v>2.099721336893326</v>
       </c>
       <c r="I13" t="n">
-        <v>7.102124930923432</v>
+        <v>7.102124930923435</v>
       </c>
       <c r="J13" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153311</v>
       </c>
       <c r="K13" t="n">
-        <v>27.43807636553852</v>
+        <v>27.43807636553853</v>
       </c>
       <c r="L13" t="n">
-        <v>35.11129114882763</v>
+        <v>35.11129114882764</v>
       </c>
       <c r="M13" t="n">
-        <v>37.01993355015498</v>
+        <v>37.019933550155</v>
       </c>
       <c r="N13" t="n">
-        <v>36.13968227395229</v>
+        <v>36.1396822739523</v>
       </c>
       <c r="O13" t="n">
-        <v>33.38084595707301</v>
+        <v>33.38084595707303</v>
       </c>
       <c r="P13" t="n">
-        <v>28.56308043561224</v>
+        <v>28.56308043561225</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391044</v>
       </c>
       <c r="R13" t="n">
-        <v>10.61883612706991</v>
+        <v>10.61883612706992</v>
       </c>
       <c r="S13" t="n">
-        <v>4.115711454830777</v>
+        <v>4.115711454830778</v>
       </c>
       <c r="T13" t="n">
         <v>1.009068536134828</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5264893035751051</v>
+        <v>0.5264893035751054</v>
       </c>
       <c r="H14" t="n">
-        <v>5.391908580238548</v>
+        <v>5.39190858023855</v>
       </c>
       <c r="I14" t="n">
-        <v>20.29747887607926</v>
+        <v>20.29747887607927</v>
       </c>
       <c r="J14" t="n">
-        <v>44.68512152930762</v>
+        <v>44.68512152930764</v>
       </c>
       <c r="K14" t="n">
-        <v>66.97141374964184</v>
+        <v>66.97141374964187</v>
       </c>
       <c r="L14" t="n">
-        <v>83.08396077392848</v>
+        <v>83.08396077392852</v>
       </c>
       <c r="M14" t="n">
-        <v>92.44691492638225</v>
+        <v>92.44691492638229</v>
       </c>
       <c r="N14" t="n">
-        <v>93.94280266016503</v>
+        <v>93.94280266016507</v>
       </c>
       <c r="O14" t="n">
-        <v>88.70752464774007</v>
+        <v>88.70752464774012</v>
       </c>
       <c r="P14" t="n">
-        <v>75.70981996572965</v>
+        <v>75.70981996572968</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.85492178144618</v>
+        <v>56.8549217814462</v>
       </c>
       <c r="R14" t="n">
-        <v>33.07208371569973</v>
+        <v>33.07208371569975</v>
       </c>
       <c r="S14" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521773</v>
       </c>
       <c r="T14" t="n">
-        <v>2.304706926400024</v>
+        <v>2.304706926400025</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04211914428600841</v>
+        <v>0.04211914428600842</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2816966118137935</v>
+        <v>0.2816966118137936</v>
       </c>
       <c r="H15" t="n">
-        <v>2.720596224622691</v>
+        <v>2.720596224622692</v>
       </c>
       <c r="I15" t="n">
-        <v>9.6987649242907</v>
+        <v>9.698764924290703</v>
       </c>
       <c r="J15" t="n">
-        <v>26.61415225912688</v>
+        <v>26.61415225912689</v>
       </c>
       <c r="K15" t="n">
-        <v>45.48782525065104</v>
+        <v>45.48782525065106</v>
       </c>
       <c r="L15" t="n">
-        <v>61.16399459579759</v>
+        <v>61.16399459579761</v>
       </c>
       <c r="M15" t="n">
-        <v>71.37549677404759</v>
+        <v>71.37549677404762</v>
       </c>
       <c r="N15" t="n">
-        <v>73.26459378923747</v>
+        <v>73.26459378923749</v>
       </c>
       <c r="O15" t="n">
-        <v>67.02278991694236</v>
+        <v>67.02278991694239</v>
       </c>
       <c r="P15" t="n">
-        <v>53.79169774188133</v>
+        <v>53.79169774188136</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.95832539573968</v>
+        <v>35.9583253957397</v>
       </c>
       <c r="R15" t="n">
-        <v>17.48990016156168</v>
+        <v>17.48990016156169</v>
       </c>
       <c r="S15" t="n">
-        <v>5.232391013295679</v>
+        <v>5.232391013295681</v>
       </c>
       <c r="T15" t="n">
-        <v>1.135435027442439</v>
+        <v>1.13543502744244</v>
       </c>
       <c r="U15" t="n">
         <v>0.01853267182985485</v>
@@ -32145,43 +32145,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.236164976542194</v>
       </c>
       <c r="H16" t="n">
-        <v>2.099721336893325</v>
+        <v>2.099721336893326</v>
       </c>
       <c r="I16" t="n">
-        <v>7.102124930923432</v>
+        <v>7.102124930923435</v>
       </c>
       <c r="J16" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153311</v>
       </c>
       <c r="K16" t="n">
-        <v>27.43807636553852</v>
+        <v>27.43807636553853</v>
       </c>
       <c r="L16" t="n">
-        <v>35.11129114882763</v>
+        <v>35.11129114882764</v>
       </c>
       <c r="M16" t="n">
-        <v>37.01993355015498</v>
+        <v>37.019933550155</v>
       </c>
       <c r="N16" t="n">
-        <v>36.13968227395229</v>
+        <v>36.1396822739523</v>
       </c>
       <c r="O16" t="n">
-        <v>33.38084595707301</v>
+        <v>33.38084595707303</v>
       </c>
       <c r="P16" t="n">
-        <v>28.56308043561224</v>
+        <v>28.56308043561225</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391044</v>
       </c>
       <c r="R16" t="n">
-        <v>10.61883612706991</v>
+        <v>10.61883612706992</v>
       </c>
       <c r="S16" t="n">
-        <v>4.115711454830777</v>
+        <v>4.115711454830778</v>
       </c>
       <c r="T16" t="n">
         <v>1.009068536134828</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5264893035751051</v>
+        <v>0.5264893035751054</v>
       </c>
       <c r="H17" t="n">
-        <v>5.391908580238548</v>
+        <v>5.39190858023855</v>
       </c>
       <c r="I17" t="n">
-        <v>20.29747887607926</v>
+        <v>20.29747887607927</v>
       </c>
       <c r="J17" t="n">
-        <v>44.68512152930762</v>
+        <v>44.68512152930764</v>
       </c>
       <c r="K17" t="n">
-        <v>66.97141374964184</v>
+        <v>66.97141374964187</v>
       </c>
       <c r="L17" t="n">
-        <v>83.08396077392848</v>
+        <v>83.08396077392852</v>
       </c>
       <c r="M17" t="n">
-        <v>92.44691492638225</v>
+        <v>92.44691492638229</v>
       </c>
       <c r="N17" t="n">
-        <v>93.94280266016503</v>
+        <v>93.94280266016507</v>
       </c>
       <c r="O17" t="n">
-        <v>88.70752464774007</v>
+        <v>88.70752464774012</v>
       </c>
       <c r="P17" t="n">
-        <v>75.70981996572965</v>
+        <v>75.70981996572968</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.85492178144618</v>
+        <v>56.8549217814462</v>
       </c>
       <c r="R17" t="n">
-        <v>33.07208371569973</v>
+        <v>33.07208371569975</v>
       </c>
       <c r="S17" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521773</v>
       </c>
       <c r="T17" t="n">
-        <v>2.304706926400024</v>
+        <v>2.304706926400025</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04211914428600841</v>
+        <v>0.04211914428600842</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2816966118137935</v>
+        <v>0.2816966118137936</v>
       </c>
       <c r="H18" t="n">
-        <v>2.720596224622691</v>
+        <v>2.720596224622692</v>
       </c>
       <c r="I18" t="n">
-        <v>9.6987649242907</v>
+        <v>9.698764924290703</v>
       </c>
       <c r="J18" t="n">
-        <v>26.61415225912688</v>
+        <v>26.61415225912689</v>
       </c>
       <c r="K18" t="n">
-        <v>45.48782525065104</v>
+        <v>45.48782525065106</v>
       </c>
       <c r="L18" t="n">
-        <v>61.16399459579759</v>
+        <v>61.16399459579761</v>
       </c>
       <c r="M18" t="n">
-        <v>71.37549677404759</v>
+        <v>71.37549677404762</v>
       </c>
       <c r="N18" t="n">
-        <v>73.26459378923747</v>
+        <v>73.26459378923749</v>
       </c>
       <c r="O18" t="n">
-        <v>67.02278991694236</v>
+        <v>67.02278991694239</v>
       </c>
       <c r="P18" t="n">
-        <v>53.79169774188133</v>
+        <v>53.79169774188136</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.95832539573968</v>
+        <v>35.9583253957397</v>
       </c>
       <c r="R18" t="n">
-        <v>17.48990016156168</v>
+        <v>17.48990016156169</v>
       </c>
       <c r="S18" t="n">
-        <v>5.232391013295679</v>
+        <v>5.232391013295681</v>
       </c>
       <c r="T18" t="n">
-        <v>1.135435027442439</v>
+        <v>1.13543502744244</v>
       </c>
       <c r="U18" t="n">
         <v>0.01853267182985485</v>
@@ -32382,43 +32382,43 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.236164976542194</v>
       </c>
       <c r="H19" t="n">
-        <v>2.099721336893325</v>
+        <v>2.099721336893326</v>
       </c>
       <c r="I19" t="n">
-        <v>7.102124930923432</v>
+        <v>7.102124930923435</v>
       </c>
       <c r="J19" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153311</v>
       </c>
       <c r="K19" t="n">
-        <v>27.43807636553852</v>
+        <v>27.43807636553853</v>
       </c>
       <c r="L19" t="n">
-        <v>35.11129114882763</v>
+        <v>35.11129114882764</v>
       </c>
       <c r="M19" t="n">
-        <v>37.01993355015498</v>
+        <v>37.019933550155</v>
       </c>
       <c r="N19" t="n">
-        <v>36.13968227395229</v>
+        <v>36.1396822739523</v>
       </c>
       <c r="O19" t="n">
-        <v>33.38084595707301</v>
+        <v>33.38084595707303</v>
       </c>
       <c r="P19" t="n">
-        <v>28.56308043561224</v>
+        <v>28.56308043561225</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391044</v>
       </c>
       <c r="R19" t="n">
-        <v>10.61883612706991</v>
+        <v>10.61883612706992</v>
       </c>
       <c r="S19" t="n">
-        <v>4.115711454830777</v>
+        <v>4.115711454830778</v>
       </c>
       <c r="T19" t="n">
         <v>1.009068536134828</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5264893035751051</v>
+        <v>0.5264893035751054</v>
       </c>
       <c r="H20" t="n">
-        <v>5.391908580238548</v>
+        <v>5.39190858023855</v>
       </c>
       <c r="I20" t="n">
-        <v>20.29747887607926</v>
+        <v>20.29747887607927</v>
       </c>
       <c r="J20" t="n">
-        <v>44.68512152930762</v>
+        <v>44.68512152930764</v>
       </c>
       <c r="K20" t="n">
-        <v>66.97141374964184</v>
+        <v>66.97141374964187</v>
       </c>
       <c r="L20" t="n">
-        <v>83.08396077392848</v>
+        <v>83.08396077392852</v>
       </c>
       <c r="M20" t="n">
-        <v>92.44691492638225</v>
+        <v>92.44691492638229</v>
       </c>
       <c r="N20" t="n">
-        <v>93.94280266016503</v>
+        <v>93.94280266016507</v>
       </c>
       <c r="O20" t="n">
-        <v>88.70752464774007</v>
+        <v>88.70752464774012</v>
       </c>
       <c r="P20" t="n">
-        <v>75.70981996572965</v>
+        <v>75.70981996572968</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.85492178144618</v>
+        <v>56.8549217814462</v>
       </c>
       <c r="R20" t="n">
-        <v>33.07208371569973</v>
+        <v>33.07208371569975</v>
       </c>
       <c r="S20" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521773</v>
       </c>
       <c r="T20" t="n">
-        <v>2.304706926400024</v>
+        <v>2.304706926400025</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04211914428600841</v>
+        <v>0.04211914428600842</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2816966118137935</v>
+        <v>0.2816966118137936</v>
       </c>
       <c r="H21" t="n">
-        <v>2.720596224622691</v>
+        <v>2.720596224622692</v>
       </c>
       <c r="I21" t="n">
-        <v>9.6987649242907</v>
+        <v>9.698764924290703</v>
       </c>
       <c r="J21" t="n">
-        <v>26.61415225912688</v>
+        <v>26.61415225912689</v>
       </c>
       <c r="K21" t="n">
-        <v>45.48782525065104</v>
+        <v>45.48782525065106</v>
       </c>
       <c r="L21" t="n">
-        <v>61.16399459579759</v>
+        <v>61.16399459579761</v>
       </c>
       <c r="M21" t="n">
-        <v>71.37549677404759</v>
+        <v>71.37549677404762</v>
       </c>
       <c r="N21" t="n">
-        <v>73.26459378923747</v>
+        <v>73.26459378923749</v>
       </c>
       <c r="O21" t="n">
-        <v>67.02278991694236</v>
+        <v>67.02278991694239</v>
       </c>
       <c r="P21" t="n">
-        <v>53.79169774188133</v>
+        <v>53.79169774188136</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.95832539573968</v>
+        <v>35.9583253957397</v>
       </c>
       <c r="R21" t="n">
-        <v>17.48990016156168</v>
+        <v>17.48990016156169</v>
       </c>
       <c r="S21" t="n">
-        <v>5.232391013295679</v>
+        <v>5.232391013295681</v>
       </c>
       <c r="T21" t="n">
-        <v>1.135435027442439</v>
+        <v>1.13543502744244</v>
       </c>
       <c r="U21" t="n">
         <v>0.01853267182985485</v>
@@ -32619,43 +32619,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.236164976542194</v>
       </c>
       <c r="H22" t="n">
-        <v>2.099721336893325</v>
+        <v>2.099721336893326</v>
       </c>
       <c r="I22" t="n">
-        <v>7.102124930923432</v>
+        <v>7.102124930923435</v>
       </c>
       <c r="J22" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153311</v>
       </c>
       <c r="K22" t="n">
-        <v>27.43807636553852</v>
+        <v>27.43807636553853</v>
       </c>
       <c r="L22" t="n">
-        <v>35.11129114882763</v>
+        <v>35.11129114882764</v>
       </c>
       <c r="M22" t="n">
-        <v>37.01993355015498</v>
+        <v>37.019933550155</v>
       </c>
       <c r="N22" t="n">
-        <v>36.13968227395229</v>
+        <v>36.1396822739523</v>
       </c>
       <c r="O22" t="n">
-        <v>33.38084595707301</v>
+        <v>33.38084595707303</v>
       </c>
       <c r="P22" t="n">
-        <v>28.56308043561224</v>
+        <v>28.56308043561225</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391044</v>
       </c>
       <c r="R22" t="n">
-        <v>10.61883612706991</v>
+        <v>10.61883612706992</v>
       </c>
       <c r="S22" t="n">
-        <v>4.115711454830777</v>
+        <v>4.115711454830778</v>
       </c>
       <c r="T22" t="n">
         <v>1.009068536134828</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5264893035751051</v>
+        <v>0.5264893035751054</v>
       </c>
       <c r="H23" t="n">
-        <v>5.391908580238548</v>
+        <v>5.39190858023855</v>
       </c>
       <c r="I23" t="n">
-        <v>20.29747887607926</v>
+        <v>20.29747887607927</v>
       </c>
       <c r="J23" t="n">
-        <v>44.68512152930762</v>
+        <v>44.68512152930764</v>
       </c>
       <c r="K23" t="n">
-        <v>66.97141374964184</v>
+        <v>66.97141374964187</v>
       </c>
       <c r="L23" t="n">
-        <v>83.08396077392848</v>
+        <v>83.08396077392852</v>
       </c>
       <c r="M23" t="n">
-        <v>92.44691492638225</v>
+        <v>92.44691492638229</v>
       </c>
       <c r="N23" t="n">
-        <v>93.94280266016503</v>
+        <v>93.94280266016507</v>
       </c>
       <c r="O23" t="n">
-        <v>88.70752464774007</v>
+        <v>88.70752464774012</v>
       </c>
       <c r="P23" t="n">
-        <v>75.70981996572965</v>
+        <v>75.70981996572968</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.85492178144618</v>
+        <v>56.8549217814462</v>
       </c>
       <c r="R23" t="n">
-        <v>33.07208371569973</v>
+        <v>33.07208371569975</v>
       </c>
       <c r="S23" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521773</v>
       </c>
       <c r="T23" t="n">
-        <v>2.304706926400024</v>
+        <v>2.304706926400025</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04211914428600841</v>
+        <v>0.04211914428600842</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2816966118137935</v>
+        <v>0.2816966118137936</v>
       </c>
       <c r="H24" t="n">
-        <v>2.720596224622691</v>
+        <v>2.720596224622692</v>
       </c>
       <c r="I24" t="n">
-        <v>9.6987649242907</v>
+        <v>9.698764924290703</v>
       </c>
       <c r="J24" t="n">
-        <v>26.61415225912688</v>
+        <v>26.61415225912689</v>
       </c>
       <c r="K24" t="n">
-        <v>45.48782525065104</v>
+        <v>45.48782525065106</v>
       </c>
       <c r="L24" t="n">
-        <v>61.16399459579759</v>
+        <v>61.16399459579761</v>
       </c>
       <c r="M24" t="n">
-        <v>71.37549677404759</v>
+        <v>71.37549677404762</v>
       </c>
       <c r="N24" t="n">
-        <v>73.26459378923747</v>
+        <v>73.26459378923749</v>
       </c>
       <c r="O24" t="n">
-        <v>67.02278991694236</v>
+        <v>67.02278991694239</v>
       </c>
       <c r="P24" t="n">
-        <v>53.79169774188133</v>
+        <v>53.79169774188136</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.95832539573968</v>
+        <v>35.9583253957397</v>
       </c>
       <c r="R24" t="n">
-        <v>17.48990016156168</v>
+        <v>17.48990016156169</v>
       </c>
       <c r="S24" t="n">
-        <v>5.232391013295679</v>
+        <v>5.232391013295681</v>
       </c>
       <c r="T24" t="n">
-        <v>1.135435027442439</v>
+        <v>1.13543502744244</v>
       </c>
       <c r="U24" t="n">
         <v>0.01853267182985485</v>
@@ -32856,43 +32856,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.236164976542194</v>
       </c>
       <c r="H25" t="n">
-        <v>2.099721336893325</v>
+        <v>2.099721336893326</v>
       </c>
       <c r="I25" t="n">
-        <v>7.102124930923432</v>
+        <v>7.102124930923435</v>
       </c>
       <c r="J25" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153311</v>
       </c>
       <c r="K25" t="n">
-        <v>27.43807636553852</v>
+        <v>27.43807636553853</v>
       </c>
       <c r="L25" t="n">
-        <v>35.11129114882763</v>
+        <v>35.11129114882764</v>
       </c>
       <c r="M25" t="n">
-        <v>37.01993355015498</v>
+        <v>37.019933550155</v>
       </c>
       <c r="N25" t="n">
-        <v>36.13968227395229</v>
+        <v>36.1396822739523</v>
       </c>
       <c r="O25" t="n">
-        <v>33.38084595707301</v>
+        <v>33.38084595707303</v>
       </c>
       <c r="P25" t="n">
-        <v>28.56308043561224</v>
+        <v>28.56308043561225</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391044</v>
       </c>
       <c r="R25" t="n">
-        <v>10.61883612706991</v>
+        <v>10.61883612706992</v>
       </c>
       <c r="S25" t="n">
-        <v>4.115711454830777</v>
+        <v>4.115711454830778</v>
       </c>
       <c r="T25" t="n">
         <v>1.009068536134828</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5264893035751051</v>
+        <v>0.5264893035751054</v>
       </c>
       <c r="H26" t="n">
-        <v>5.391908580238548</v>
+        <v>5.39190858023855</v>
       </c>
       <c r="I26" t="n">
-        <v>20.29747887607926</v>
+        <v>20.29747887607927</v>
       </c>
       <c r="J26" t="n">
-        <v>44.68512152930762</v>
+        <v>44.68512152930764</v>
       </c>
       <c r="K26" t="n">
-        <v>66.97141374964184</v>
+        <v>66.97141374964187</v>
       </c>
       <c r="L26" t="n">
-        <v>83.08396077392848</v>
+        <v>83.08396077392852</v>
       </c>
       <c r="M26" t="n">
-        <v>92.44691492638225</v>
+        <v>92.44691492638229</v>
       </c>
       <c r="N26" t="n">
-        <v>93.94280266016503</v>
+        <v>93.94280266016507</v>
       </c>
       <c r="O26" t="n">
-        <v>88.70752464774007</v>
+        <v>88.70752464774012</v>
       </c>
       <c r="P26" t="n">
-        <v>75.70981996572965</v>
+        <v>75.70981996572968</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.85492178144618</v>
+        <v>56.8549217814462</v>
       </c>
       <c r="R26" t="n">
-        <v>33.07208371569973</v>
+        <v>33.07208371569975</v>
       </c>
       <c r="S26" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521773</v>
       </c>
       <c r="T26" t="n">
-        <v>2.304706926400024</v>
+        <v>2.304706926400025</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04211914428600841</v>
+        <v>0.04211914428600842</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2816966118137935</v>
+        <v>0.2816966118137936</v>
       </c>
       <c r="H27" t="n">
-        <v>2.720596224622691</v>
+        <v>2.720596224622692</v>
       </c>
       <c r="I27" t="n">
-        <v>9.6987649242907</v>
+        <v>9.698764924290703</v>
       </c>
       <c r="J27" t="n">
-        <v>26.61415225912688</v>
+        <v>26.61415225912689</v>
       </c>
       <c r="K27" t="n">
-        <v>45.48782525065104</v>
+        <v>45.48782525065106</v>
       </c>
       <c r="L27" t="n">
-        <v>61.16399459579759</v>
+        <v>61.16399459579761</v>
       </c>
       <c r="M27" t="n">
-        <v>71.37549677404759</v>
+        <v>71.37549677404762</v>
       </c>
       <c r="N27" t="n">
-        <v>73.26459378923747</v>
+        <v>73.26459378923749</v>
       </c>
       <c r="O27" t="n">
-        <v>67.02278991694236</v>
+        <v>67.02278991694239</v>
       </c>
       <c r="P27" t="n">
-        <v>53.79169774188133</v>
+        <v>53.79169774188136</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.95832539573968</v>
+        <v>35.9583253957397</v>
       </c>
       <c r="R27" t="n">
-        <v>17.48990016156168</v>
+        <v>17.48990016156169</v>
       </c>
       <c r="S27" t="n">
-        <v>5.232391013295679</v>
+        <v>5.232391013295681</v>
       </c>
       <c r="T27" t="n">
-        <v>1.135435027442439</v>
+        <v>1.13543502744244</v>
       </c>
       <c r="U27" t="n">
         <v>0.01853267182985485</v>
@@ -33093,43 +33093,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.236164976542194</v>
       </c>
       <c r="H28" t="n">
-        <v>2.099721336893325</v>
+        <v>2.099721336893326</v>
       </c>
       <c r="I28" t="n">
-        <v>7.102124930923432</v>
+        <v>7.102124930923435</v>
       </c>
       <c r="J28" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153311</v>
       </c>
       <c r="K28" t="n">
-        <v>27.43807636553852</v>
+        <v>27.43807636553853</v>
       </c>
       <c r="L28" t="n">
-        <v>35.11129114882763</v>
+        <v>35.11129114882764</v>
       </c>
       <c r="M28" t="n">
-        <v>37.01993355015498</v>
+        <v>37.019933550155</v>
       </c>
       <c r="N28" t="n">
-        <v>36.13968227395229</v>
+        <v>36.1396822739523</v>
       </c>
       <c r="O28" t="n">
-        <v>33.38084595707301</v>
+        <v>33.38084595707303</v>
       </c>
       <c r="P28" t="n">
-        <v>28.56308043561224</v>
+        <v>28.56308043561225</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391044</v>
       </c>
       <c r="R28" t="n">
-        <v>10.61883612706991</v>
+        <v>10.61883612706992</v>
       </c>
       <c r="S28" t="n">
-        <v>4.115711454830777</v>
+        <v>4.115711454830778</v>
       </c>
       <c r="T28" t="n">
         <v>1.009068536134828</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5264893035751051</v>
+        <v>0.5264893035751054</v>
       </c>
       <c r="H29" t="n">
-        <v>5.391908580238548</v>
+        <v>5.39190858023855</v>
       </c>
       <c r="I29" t="n">
-        <v>20.29747887607926</v>
+        <v>20.29747887607927</v>
       </c>
       <c r="J29" t="n">
-        <v>44.68512152930762</v>
+        <v>44.68512152930764</v>
       </c>
       <c r="K29" t="n">
-        <v>66.97141374964184</v>
+        <v>66.97141374964187</v>
       </c>
       <c r="L29" t="n">
-        <v>83.08396077392848</v>
+        <v>83.08396077392852</v>
       </c>
       <c r="M29" t="n">
-        <v>92.44691492638225</v>
+        <v>92.44691492638229</v>
       </c>
       <c r="N29" t="n">
-        <v>93.94280266016503</v>
+        <v>93.94280266016507</v>
       </c>
       <c r="O29" t="n">
-        <v>88.70752464774007</v>
+        <v>88.70752464774012</v>
       </c>
       <c r="P29" t="n">
-        <v>75.70981996572965</v>
+        <v>75.70981996572968</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.85492178144618</v>
+        <v>56.8549217814462</v>
       </c>
       <c r="R29" t="n">
-        <v>33.07208371569973</v>
+        <v>33.07208371569975</v>
       </c>
       <c r="S29" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521773</v>
       </c>
       <c r="T29" t="n">
-        <v>2.304706926400024</v>
+        <v>2.304706926400025</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04211914428600841</v>
+        <v>0.04211914428600842</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2816966118137935</v>
+        <v>0.2816966118137936</v>
       </c>
       <c r="H30" t="n">
-        <v>2.720596224622691</v>
+        <v>2.720596224622692</v>
       </c>
       <c r="I30" t="n">
-        <v>9.6987649242907</v>
+        <v>9.698764924290703</v>
       </c>
       <c r="J30" t="n">
-        <v>26.61415225912688</v>
+        <v>26.61415225912689</v>
       </c>
       <c r="K30" t="n">
-        <v>45.48782525065104</v>
+        <v>45.48782525065106</v>
       </c>
       <c r="L30" t="n">
-        <v>61.16399459579759</v>
+        <v>61.16399459579761</v>
       </c>
       <c r="M30" t="n">
-        <v>71.37549677404759</v>
+        <v>71.37549677404762</v>
       </c>
       <c r="N30" t="n">
-        <v>73.26459378923747</v>
+        <v>73.26459378923749</v>
       </c>
       <c r="O30" t="n">
-        <v>67.02278991694236</v>
+        <v>67.02278991694239</v>
       </c>
       <c r="P30" t="n">
-        <v>53.79169774188133</v>
+        <v>53.79169774188136</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.95832539573968</v>
+        <v>35.9583253957397</v>
       </c>
       <c r="R30" t="n">
-        <v>17.48990016156168</v>
+        <v>17.48990016156169</v>
       </c>
       <c r="S30" t="n">
-        <v>5.232391013295679</v>
+        <v>5.232391013295681</v>
       </c>
       <c r="T30" t="n">
-        <v>1.135435027442439</v>
+        <v>1.13543502744244</v>
       </c>
       <c r="U30" t="n">
         <v>0.01853267182985485</v>
@@ -33330,43 +33330,43 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.236164976542194</v>
       </c>
       <c r="H31" t="n">
-        <v>2.099721336893325</v>
+        <v>2.099721336893326</v>
       </c>
       <c r="I31" t="n">
-        <v>7.102124930923432</v>
+        <v>7.102124930923435</v>
       </c>
       <c r="J31" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153311</v>
       </c>
       <c r="K31" t="n">
-        <v>27.43807636553852</v>
+        <v>27.43807636553853</v>
       </c>
       <c r="L31" t="n">
-        <v>35.11129114882763</v>
+        <v>35.11129114882764</v>
       </c>
       <c r="M31" t="n">
-        <v>37.01993355015498</v>
+        <v>37.019933550155</v>
       </c>
       <c r="N31" t="n">
-        <v>36.13968227395229</v>
+        <v>36.1396822739523</v>
       </c>
       <c r="O31" t="n">
-        <v>33.38084595707301</v>
+        <v>33.38084595707303</v>
       </c>
       <c r="P31" t="n">
-        <v>28.56308043561224</v>
+        <v>28.56308043561225</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391044</v>
       </c>
       <c r="R31" t="n">
-        <v>10.61883612706991</v>
+        <v>10.61883612706992</v>
       </c>
       <c r="S31" t="n">
-        <v>4.115711454830777</v>
+        <v>4.115711454830778</v>
       </c>
       <c r="T31" t="n">
         <v>1.009068536134828</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5264893035751051</v>
+        <v>0.5264893035751054</v>
       </c>
       <c r="H32" t="n">
-        <v>5.391908580238548</v>
+        <v>5.39190858023855</v>
       </c>
       <c r="I32" t="n">
-        <v>20.29747887607926</v>
+        <v>20.29747887607927</v>
       </c>
       <c r="J32" t="n">
-        <v>44.68512152930762</v>
+        <v>44.68512152930764</v>
       </c>
       <c r="K32" t="n">
-        <v>66.97141374964184</v>
+        <v>66.97141374964187</v>
       </c>
       <c r="L32" t="n">
-        <v>83.08396077392848</v>
+        <v>83.08396077392852</v>
       </c>
       <c r="M32" t="n">
-        <v>92.44691492638225</v>
+        <v>92.44691492638229</v>
       </c>
       <c r="N32" t="n">
-        <v>93.94280266016503</v>
+        <v>93.94280266016507</v>
       </c>
       <c r="O32" t="n">
-        <v>88.70752464774007</v>
+        <v>88.70752464774012</v>
       </c>
       <c r="P32" t="n">
-        <v>75.70981996572965</v>
+        <v>75.70981996572968</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.85492178144618</v>
+        <v>56.8549217814462</v>
       </c>
       <c r="R32" t="n">
-        <v>33.07208371569973</v>
+        <v>33.07208371569975</v>
       </c>
       <c r="S32" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521773</v>
       </c>
       <c r="T32" t="n">
-        <v>2.304706926400024</v>
+        <v>2.304706926400025</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04211914428600841</v>
+        <v>0.04211914428600842</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2816966118137935</v>
+        <v>0.2816966118137936</v>
       </c>
       <c r="H33" t="n">
-        <v>2.720596224622691</v>
+        <v>2.720596224622692</v>
       </c>
       <c r="I33" t="n">
-        <v>9.6987649242907</v>
+        <v>9.698764924290703</v>
       </c>
       <c r="J33" t="n">
-        <v>26.61415225912688</v>
+        <v>26.61415225912689</v>
       </c>
       <c r="K33" t="n">
-        <v>45.48782525065104</v>
+        <v>45.48782525065106</v>
       </c>
       <c r="L33" t="n">
-        <v>61.16399459579759</v>
+        <v>61.16399459579761</v>
       </c>
       <c r="M33" t="n">
-        <v>71.37549677404759</v>
+        <v>71.37549677404762</v>
       </c>
       <c r="N33" t="n">
-        <v>73.26459378923747</v>
+        <v>73.26459378923749</v>
       </c>
       <c r="O33" t="n">
-        <v>67.02278991694236</v>
+        <v>67.02278991694239</v>
       </c>
       <c r="P33" t="n">
-        <v>53.79169774188133</v>
+        <v>53.79169774188136</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.95832539573968</v>
+        <v>35.9583253957397</v>
       </c>
       <c r="R33" t="n">
-        <v>17.48990016156168</v>
+        <v>17.48990016156169</v>
       </c>
       <c r="S33" t="n">
-        <v>5.232391013295679</v>
+        <v>5.232391013295681</v>
       </c>
       <c r="T33" t="n">
-        <v>1.135435027442439</v>
+        <v>1.13543502744244</v>
       </c>
       <c r="U33" t="n">
         <v>0.01853267182985485</v>
@@ -33567,43 +33567,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.236164976542194</v>
       </c>
       <c r="H34" t="n">
-        <v>2.099721336893325</v>
+        <v>2.099721336893326</v>
       </c>
       <c r="I34" t="n">
-        <v>7.102124930923432</v>
+        <v>7.102124930923435</v>
       </c>
       <c r="J34" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153311</v>
       </c>
       <c r="K34" t="n">
-        <v>27.43807636553852</v>
+        <v>27.43807636553853</v>
       </c>
       <c r="L34" t="n">
-        <v>35.11129114882763</v>
+        <v>35.11129114882764</v>
       </c>
       <c r="M34" t="n">
-        <v>37.01993355015498</v>
+        <v>37.019933550155</v>
       </c>
       <c r="N34" t="n">
-        <v>36.13968227395229</v>
+        <v>36.1396822739523</v>
       </c>
       <c r="O34" t="n">
-        <v>33.38084595707301</v>
+        <v>33.38084595707303</v>
       </c>
       <c r="P34" t="n">
-        <v>28.56308043561224</v>
+        <v>28.56308043561225</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391044</v>
       </c>
       <c r="R34" t="n">
-        <v>10.61883612706991</v>
+        <v>10.61883612706992</v>
       </c>
       <c r="S34" t="n">
-        <v>4.115711454830777</v>
+        <v>4.115711454830778</v>
       </c>
       <c r="T34" t="n">
         <v>1.009068536134828</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5264893035751051</v>
+        <v>0.5264893035751054</v>
       </c>
       <c r="H35" t="n">
-        <v>5.391908580238548</v>
+        <v>5.39190858023855</v>
       </c>
       <c r="I35" t="n">
-        <v>20.29747887607926</v>
+        <v>20.29747887607927</v>
       </c>
       <c r="J35" t="n">
-        <v>44.68512152930762</v>
+        <v>44.68512152930764</v>
       </c>
       <c r="K35" t="n">
-        <v>66.97141374964184</v>
+        <v>66.97141374964187</v>
       </c>
       <c r="L35" t="n">
-        <v>83.08396077392848</v>
+        <v>83.08396077392852</v>
       </c>
       <c r="M35" t="n">
-        <v>92.44691492638225</v>
+        <v>92.44691492638229</v>
       </c>
       <c r="N35" t="n">
-        <v>93.94280266016503</v>
+        <v>93.94280266016507</v>
       </c>
       <c r="O35" t="n">
-        <v>88.70752464774007</v>
+        <v>88.70752464774012</v>
       </c>
       <c r="P35" t="n">
-        <v>75.70981996572965</v>
+        <v>75.70981996572968</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.85492178144618</v>
+        <v>56.8549217814462</v>
       </c>
       <c r="R35" t="n">
-        <v>33.07208371569973</v>
+        <v>33.07208371569975</v>
       </c>
       <c r="S35" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521773</v>
       </c>
       <c r="T35" t="n">
-        <v>2.304706926400024</v>
+        <v>2.304706926400025</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04211914428600841</v>
+        <v>0.04211914428600842</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2816966118137935</v>
+        <v>0.2816966118137936</v>
       </c>
       <c r="H36" t="n">
-        <v>2.720596224622691</v>
+        <v>2.720596224622692</v>
       </c>
       <c r="I36" t="n">
-        <v>9.6987649242907</v>
+        <v>9.698764924290703</v>
       </c>
       <c r="J36" t="n">
-        <v>26.61415225912688</v>
+        <v>26.61415225912689</v>
       </c>
       <c r="K36" t="n">
-        <v>45.48782525065104</v>
+        <v>45.48782525065106</v>
       </c>
       <c r="L36" t="n">
-        <v>61.16399459579759</v>
+        <v>61.16399459579761</v>
       </c>
       <c r="M36" t="n">
-        <v>71.37549677404759</v>
+        <v>71.37549677404762</v>
       </c>
       <c r="N36" t="n">
-        <v>73.26459378923747</v>
+        <v>73.26459378923749</v>
       </c>
       <c r="O36" t="n">
-        <v>67.02278991694236</v>
+        <v>67.02278991694239</v>
       </c>
       <c r="P36" t="n">
-        <v>53.79169774188133</v>
+        <v>53.79169774188136</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.95832539573968</v>
+        <v>35.9583253957397</v>
       </c>
       <c r="R36" t="n">
-        <v>17.48990016156168</v>
+        <v>17.48990016156169</v>
       </c>
       <c r="S36" t="n">
-        <v>5.232391013295679</v>
+        <v>5.232391013295681</v>
       </c>
       <c r="T36" t="n">
-        <v>1.135435027442439</v>
+        <v>1.13543502744244</v>
       </c>
       <c r="U36" t="n">
         <v>0.01853267182985485</v>
@@ -33804,43 +33804,43 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.236164976542194</v>
       </c>
       <c r="H37" t="n">
-        <v>2.099721336893325</v>
+        <v>2.099721336893326</v>
       </c>
       <c r="I37" t="n">
-        <v>7.102124930923432</v>
+        <v>7.102124930923435</v>
       </c>
       <c r="J37" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153311</v>
       </c>
       <c r="K37" t="n">
-        <v>27.43807636553852</v>
+        <v>27.43807636553853</v>
       </c>
       <c r="L37" t="n">
-        <v>35.11129114882763</v>
+        <v>35.11129114882764</v>
       </c>
       <c r="M37" t="n">
-        <v>37.01993355015498</v>
+        <v>37.019933550155</v>
       </c>
       <c r="N37" t="n">
-        <v>36.13968227395229</v>
+        <v>36.1396822739523</v>
       </c>
       <c r="O37" t="n">
-        <v>33.38084595707301</v>
+        <v>33.38084595707303</v>
       </c>
       <c r="P37" t="n">
-        <v>28.56308043561224</v>
+        <v>28.56308043561225</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391044</v>
       </c>
       <c r="R37" t="n">
-        <v>10.61883612706991</v>
+        <v>10.61883612706992</v>
       </c>
       <c r="S37" t="n">
-        <v>4.115711454830777</v>
+        <v>4.115711454830778</v>
       </c>
       <c r="T37" t="n">
         <v>1.009068536134828</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5264893035751051</v>
+        <v>0.5264893035751054</v>
       </c>
       <c r="H38" t="n">
-        <v>5.391908580238548</v>
+        <v>5.39190858023855</v>
       </c>
       <c r="I38" t="n">
-        <v>20.29747887607926</v>
+        <v>20.29747887607927</v>
       </c>
       <c r="J38" t="n">
-        <v>44.68512152930762</v>
+        <v>44.68512152930764</v>
       </c>
       <c r="K38" t="n">
-        <v>66.97141374964184</v>
+        <v>66.97141374964187</v>
       </c>
       <c r="L38" t="n">
-        <v>83.08396077392848</v>
+        <v>83.08396077392852</v>
       </c>
       <c r="M38" t="n">
-        <v>92.44691492638225</v>
+        <v>92.44691492638229</v>
       </c>
       <c r="N38" t="n">
-        <v>93.94280266016503</v>
+        <v>93.94280266016507</v>
       </c>
       <c r="O38" t="n">
-        <v>88.70752464774007</v>
+        <v>88.70752464774012</v>
       </c>
       <c r="P38" t="n">
-        <v>75.70981996572965</v>
+        <v>75.70981996572968</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.85492178144618</v>
+        <v>56.8549217814462</v>
       </c>
       <c r="R38" t="n">
-        <v>33.07208371569973</v>
+        <v>33.07208371569975</v>
       </c>
       <c r="S38" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521773</v>
       </c>
       <c r="T38" t="n">
-        <v>2.304706926400024</v>
+        <v>2.304706926400025</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04211914428600841</v>
+        <v>0.04211914428600842</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2816966118137935</v>
+        <v>0.2816966118137936</v>
       </c>
       <c r="H39" t="n">
-        <v>2.720596224622691</v>
+        <v>2.720596224622692</v>
       </c>
       <c r="I39" t="n">
-        <v>9.6987649242907</v>
+        <v>9.698764924290703</v>
       </c>
       <c r="J39" t="n">
-        <v>26.61415225912688</v>
+        <v>26.61415225912689</v>
       </c>
       <c r="K39" t="n">
-        <v>45.48782525065104</v>
+        <v>45.48782525065106</v>
       </c>
       <c r="L39" t="n">
-        <v>61.16399459579759</v>
+        <v>61.16399459579761</v>
       </c>
       <c r="M39" t="n">
-        <v>71.37549677404759</v>
+        <v>71.37549677404762</v>
       </c>
       <c r="N39" t="n">
-        <v>73.26459378923747</v>
+        <v>73.26459378923749</v>
       </c>
       <c r="O39" t="n">
-        <v>67.02278991694236</v>
+        <v>67.02278991694239</v>
       </c>
       <c r="P39" t="n">
-        <v>53.79169774188133</v>
+        <v>53.79169774188136</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.95832539573968</v>
+        <v>35.9583253957397</v>
       </c>
       <c r="R39" t="n">
-        <v>17.48990016156168</v>
+        <v>17.48990016156169</v>
       </c>
       <c r="S39" t="n">
-        <v>5.232391013295679</v>
+        <v>5.232391013295681</v>
       </c>
       <c r="T39" t="n">
-        <v>1.135435027442439</v>
+        <v>1.13543502744244</v>
       </c>
       <c r="U39" t="n">
         <v>0.01853267182985485</v>
@@ -34041,43 +34041,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.236164976542194</v>
       </c>
       <c r="H40" t="n">
-        <v>2.099721336893325</v>
+        <v>2.099721336893326</v>
       </c>
       <c r="I40" t="n">
-        <v>7.102124930923432</v>
+        <v>7.102124930923435</v>
       </c>
       <c r="J40" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153311</v>
       </c>
       <c r="K40" t="n">
-        <v>27.43807636553852</v>
+        <v>27.43807636553853</v>
       </c>
       <c r="L40" t="n">
-        <v>35.11129114882763</v>
+        <v>35.11129114882764</v>
       </c>
       <c r="M40" t="n">
-        <v>37.01993355015498</v>
+        <v>37.019933550155</v>
       </c>
       <c r="N40" t="n">
-        <v>36.13968227395229</v>
+        <v>36.1396822739523</v>
       </c>
       <c r="O40" t="n">
-        <v>33.38084595707301</v>
+        <v>33.38084595707303</v>
       </c>
       <c r="P40" t="n">
-        <v>28.56308043561224</v>
+        <v>28.56308043561225</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391044</v>
       </c>
       <c r="R40" t="n">
-        <v>10.61883612706991</v>
+        <v>10.61883612706992</v>
       </c>
       <c r="S40" t="n">
-        <v>4.115711454830777</v>
+        <v>4.115711454830778</v>
       </c>
       <c r="T40" t="n">
         <v>1.009068536134828</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5264893035751051</v>
+        <v>0.5264893035751054</v>
       </c>
       <c r="H41" t="n">
-        <v>5.391908580238548</v>
+        <v>5.39190858023855</v>
       </c>
       <c r="I41" t="n">
-        <v>20.29747887607926</v>
+        <v>20.29747887607927</v>
       </c>
       <c r="J41" t="n">
-        <v>44.68512152930762</v>
+        <v>44.68512152930764</v>
       </c>
       <c r="K41" t="n">
-        <v>66.97141374964184</v>
+        <v>66.97141374964187</v>
       </c>
       <c r="L41" t="n">
-        <v>83.08396077392848</v>
+        <v>83.08396077392852</v>
       </c>
       <c r="M41" t="n">
-        <v>92.44691492638225</v>
+        <v>92.44691492638229</v>
       </c>
       <c r="N41" t="n">
-        <v>93.94280266016503</v>
+        <v>93.94280266016507</v>
       </c>
       <c r="O41" t="n">
-        <v>88.70752464774007</v>
+        <v>88.70752464774012</v>
       </c>
       <c r="P41" t="n">
-        <v>75.70981996572965</v>
+        <v>75.70981996572968</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.85492178144618</v>
+        <v>56.8549217814462</v>
       </c>
       <c r="R41" t="n">
-        <v>33.07208371569973</v>
+        <v>33.07208371569975</v>
       </c>
       <c r="S41" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521773</v>
       </c>
       <c r="T41" t="n">
-        <v>2.304706926400024</v>
+        <v>2.304706926400025</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04211914428600841</v>
+        <v>0.04211914428600842</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2816966118137935</v>
+        <v>0.2816966118137936</v>
       </c>
       <c r="H42" t="n">
-        <v>2.720596224622691</v>
+        <v>2.720596224622692</v>
       </c>
       <c r="I42" t="n">
-        <v>9.6987649242907</v>
+        <v>9.698764924290703</v>
       </c>
       <c r="J42" t="n">
-        <v>26.61415225912688</v>
+        <v>26.61415225912689</v>
       </c>
       <c r="K42" t="n">
-        <v>45.48782525065104</v>
+        <v>45.48782525065106</v>
       </c>
       <c r="L42" t="n">
-        <v>61.16399459579759</v>
+        <v>61.16399459579761</v>
       </c>
       <c r="M42" t="n">
-        <v>71.37549677404759</v>
+        <v>71.37549677404762</v>
       </c>
       <c r="N42" t="n">
-        <v>73.26459378923747</v>
+        <v>73.26459378923749</v>
       </c>
       <c r="O42" t="n">
-        <v>67.02278991694236</v>
+        <v>67.02278991694239</v>
       </c>
       <c r="P42" t="n">
-        <v>53.79169774188133</v>
+        <v>53.79169774188136</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.95832539573968</v>
+        <v>35.9583253957397</v>
       </c>
       <c r="R42" t="n">
-        <v>17.48990016156168</v>
+        <v>17.48990016156169</v>
       </c>
       <c r="S42" t="n">
-        <v>5.232391013295679</v>
+        <v>5.232391013295681</v>
       </c>
       <c r="T42" t="n">
-        <v>1.135435027442439</v>
+        <v>1.13543502744244</v>
       </c>
       <c r="U42" t="n">
         <v>0.01853267182985485</v>
@@ -34278,43 +34278,43 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.236164976542194</v>
       </c>
       <c r="H43" t="n">
-        <v>2.099721336893325</v>
+        <v>2.099721336893326</v>
       </c>
       <c r="I43" t="n">
-        <v>7.102124930923432</v>
+        <v>7.102124930923435</v>
       </c>
       <c r="J43" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153311</v>
       </c>
       <c r="K43" t="n">
-        <v>27.43807636553852</v>
+        <v>27.43807636553853</v>
       </c>
       <c r="L43" t="n">
-        <v>35.11129114882763</v>
+        <v>35.11129114882764</v>
       </c>
       <c r="M43" t="n">
-        <v>37.01993355015498</v>
+        <v>37.019933550155</v>
       </c>
       <c r="N43" t="n">
-        <v>36.13968227395229</v>
+        <v>36.1396822739523</v>
       </c>
       <c r="O43" t="n">
-        <v>33.38084595707301</v>
+        <v>33.38084595707303</v>
       </c>
       <c r="P43" t="n">
-        <v>28.56308043561224</v>
+        <v>28.56308043561225</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391044</v>
       </c>
       <c r="R43" t="n">
-        <v>10.61883612706991</v>
+        <v>10.61883612706992</v>
       </c>
       <c r="S43" t="n">
-        <v>4.115711454830777</v>
+        <v>4.115711454830778</v>
       </c>
       <c r="T43" t="n">
         <v>1.009068536134828</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5264893035751051</v>
+        <v>0.5264893035751054</v>
       </c>
       <c r="H44" t="n">
-        <v>5.391908580238548</v>
+        <v>5.39190858023855</v>
       </c>
       <c r="I44" t="n">
-        <v>20.29747887607926</v>
+        <v>20.29747887607927</v>
       </c>
       <c r="J44" t="n">
-        <v>44.68512152930762</v>
+        <v>44.68512152930764</v>
       </c>
       <c r="K44" t="n">
-        <v>66.97141374964184</v>
+        <v>66.97141374964187</v>
       </c>
       <c r="L44" t="n">
-        <v>83.08396077392848</v>
+        <v>83.08396077392852</v>
       </c>
       <c r="M44" t="n">
-        <v>92.44691492638225</v>
+        <v>92.44691492638229</v>
       </c>
       <c r="N44" t="n">
-        <v>93.94280266016503</v>
+        <v>93.94280266016507</v>
       </c>
       <c r="O44" t="n">
-        <v>88.70752464774007</v>
+        <v>88.70752464774012</v>
       </c>
       <c r="P44" t="n">
-        <v>75.70981996572965</v>
+        <v>75.70981996572968</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.85492178144618</v>
+        <v>56.8549217814462</v>
       </c>
       <c r="R44" t="n">
-        <v>33.07208371569973</v>
+        <v>33.07208371569975</v>
       </c>
       <c r="S44" t="n">
-        <v>11.99737500521772</v>
+        <v>11.99737500521773</v>
       </c>
       <c r="T44" t="n">
-        <v>2.304706926400024</v>
+        <v>2.304706926400025</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04211914428600841</v>
+        <v>0.04211914428600842</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2816966118137935</v>
+        <v>0.2816966118137936</v>
       </c>
       <c r="H45" t="n">
-        <v>2.720596224622691</v>
+        <v>2.720596224622692</v>
       </c>
       <c r="I45" t="n">
-        <v>9.6987649242907</v>
+        <v>9.698764924290703</v>
       </c>
       <c r="J45" t="n">
-        <v>26.61415225912688</v>
+        <v>26.61415225912689</v>
       </c>
       <c r="K45" t="n">
-        <v>45.48782525065104</v>
+        <v>45.48782525065106</v>
       </c>
       <c r="L45" t="n">
-        <v>61.16399459579759</v>
+        <v>61.16399459579761</v>
       </c>
       <c r="M45" t="n">
-        <v>71.37549677404759</v>
+        <v>71.37549677404762</v>
       </c>
       <c r="N45" t="n">
-        <v>73.26459378923747</v>
+        <v>73.26459378923749</v>
       </c>
       <c r="O45" t="n">
-        <v>67.02278991694236</v>
+        <v>67.02278991694239</v>
       </c>
       <c r="P45" t="n">
-        <v>53.79169774188133</v>
+        <v>53.79169774188136</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.95832539573968</v>
+        <v>35.9583253957397</v>
       </c>
       <c r="R45" t="n">
-        <v>17.48990016156168</v>
+        <v>17.48990016156169</v>
       </c>
       <c r="S45" t="n">
-        <v>5.232391013295679</v>
+        <v>5.232391013295681</v>
       </c>
       <c r="T45" t="n">
-        <v>1.135435027442439</v>
+        <v>1.13543502744244</v>
       </c>
       <c r="U45" t="n">
         <v>0.01853267182985485</v>
@@ -34515,43 +34515,43 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2361649765421938</v>
+        <v>0.236164976542194</v>
       </c>
       <c r="H46" t="n">
-        <v>2.099721336893325</v>
+        <v>2.099721336893326</v>
       </c>
       <c r="I46" t="n">
-        <v>7.102124930923432</v>
+        <v>7.102124930923435</v>
       </c>
       <c r="J46" t="n">
-        <v>16.6968638415331</v>
+        <v>16.69686384153311</v>
       </c>
       <c r="K46" t="n">
-        <v>27.43807636553852</v>
+        <v>27.43807636553853</v>
       </c>
       <c r="L46" t="n">
-        <v>35.11129114882763</v>
+        <v>35.11129114882764</v>
       </c>
       <c r="M46" t="n">
-        <v>37.01993355015498</v>
+        <v>37.019933550155</v>
       </c>
       <c r="N46" t="n">
-        <v>36.13968227395229</v>
+        <v>36.1396822739523</v>
       </c>
       <c r="O46" t="n">
-        <v>33.38084595707301</v>
+        <v>33.38084595707303</v>
       </c>
       <c r="P46" t="n">
-        <v>28.56308043561224</v>
+        <v>28.56308043561225</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.77559635391043</v>
+        <v>19.77559635391044</v>
       </c>
       <c r="R46" t="n">
-        <v>10.61883612706991</v>
+        <v>10.61883612706992</v>
       </c>
       <c r="S46" t="n">
-        <v>4.115711454830777</v>
+        <v>4.115711454830778</v>
       </c>
       <c r="T46" t="n">
         <v>1.009068536134828</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>44.02584439474497</v>
+        <v>44.02584439474523</v>
       </c>
       <c r="K11" t="n">
         <v>189.4950380547972</v>
       </c>
       <c r="L11" t="n">
-        <v>287.5793693106593</v>
+        <v>287.5793693106594</v>
       </c>
       <c r="M11" t="n">
         <v>335.3534123623372</v>
@@ -35428,7 +35428,7 @@
         <v>184.9283056026838</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.9144644401588</v>
+        <v>60.91446444015882</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>186.1362687437328</v>
       </c>
       <c r="L12" t="n">
-        <v>311.7474334260178</v>
+        <v>251.8706944120063</v>
       </c>
       <c r="M12" t="n">
-        <v>417.1280800000796</v>
+        <v>417.1280800000797</v>
       </c>
       <c r="N12" t="n">
-        <v>28.7696646121988</v>
+        <v>426.2546672576181</v>
       </c>
       <c r="O12" t="n">
-        <v>337.6082636314077</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>254.367929898444</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.04535403067435</v>
+        <v>50.04535403067436</v>
       </c>
       <c r="K13" t="n">
         <v>134.8510017646254</v>
@@ -35574,19 +35574,19 @@
         <v>194.7597564947571</v>
       </c>
       <c r="M13" t="n">
-        <v>209.4046766639837</v>
+        <v>209.4046766639838</v>
       </c>
       <c r="N13" t="n">
-        <v>212.5240370555103</v>
+        <v>212.5240370555104</v>
       </c>
       <c r="O13" t="n">
-        <v>190.1363891039642</v>
+        <v>190.1363891039643</v>
       </c>
       <c r="P13" t="n">
-        <v>156.8724374512162</v>
+        <v>156.8724374512163</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.20223159498244</v>
+        <v>62.20223159498245</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.02584439474521</v>
+        <v>44.02584439474523</v>
       </c>
       <c r="K14" t="n">
         <v>189.4950380547972</v>
       </c>
       <c r="L14" t="n">
-        <v>287.5793693106593</v>
+        <v>287.5793693106594</v>
       </c>
       <c r="M14" t="n">
         <v>335.3534123623372</v>
@@ -35665,7 +35665,7 @@
         <v>184.9283056026838</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.9144644401588</v>
+        <v>60.91446444015882</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>34.08214301315203</v>
       </c>
       <c r="K15" t="n">
-        <v>100.3986995243314</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>311.7474334260178</v>
       </c>
       <c r="M15" t="n">
-        <v>417.1280800000796</v>
+        <v>417.1280800000797</v>
       </c>
       <c r="N15" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576181</v>
       </c>
       <c r="O15" t="n">
-        <v>337.6082636314077</v>
+        <v>244.2160046368732</v>
       </c>
       <c r="P15" t="n">
         <v>254.367929898444</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.9564749071518</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.04535403067437</v>
+        <v>50.04535403067439</v>
       </c>
       <c r="K16" t="n">
         <v>134.8510017646254</v>
@@ -35814,7 +35814,7 @@
         <v>209.4046766639838</v>
       </c>
       <c r="N16" t="n">
-        <v>212.5240370555104</v>
+        <v>212.5240370555098</v>
       </c>
       <c r="O16" t="n">
         <v>190.1363891039643</v>
@@ -35823,7 +35823,7 @@
         <v>156.8724374512163</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.20223159498246</v>
+        <v>62.20223159498248</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>44.02584439474521</v>
+        <v>44.02584439474522</v>
       </c>
       <c r="K17" t="n">
         <v>189.4950380547972</v>
       </c>
       <c r="L17" t="n">
-        <v>287.5793693106593</v>
+        <v>287.5793693106594</v>
       </c>
       <c r="M17" t="n">
-        <v>335.3534123623369</v>
+        <v>335.3534123623372</v>
       </c>
       <c r="N17" t="n">
         <v>325.1058670419524</v>
@@ -35902,7 +35902,7 @@
         <v>184.9283056026838</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.9144644401588</v>
+        <v>60.91446444015882</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>34.08214301315203</v>
       </c>
       <c r="K18" t="n">
-        <v>186.1362687437328</v>
+        <v>43.01919599675757</v>
       </c>
       <c r="L18" t="n">
         <v>311.7474334260178</v>
       </c>
       <c r="M18" t="n">
-        <v>19.6430773546605</v>
+        <v>417.1280800000797</v>
       </c>
       <c r="N18" t="n">
-        <v>426.254667257618</v>
+        <v>426.2546672576181</v>
       </c>
       <c r="O18" t="n">
         <v>337.6082636314077</v>
       </c>
       <c r="P18" t="n">
-        <v>254.367929898444</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>117.9564749071518</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.66366664770517</v>
+        <v>12.66366664770518</v>
       </c>
       <c r="L19" t="n">
         <v>72.57242137783692</v>
       </c>
       <c r="M19" t="n">
-        <v>87.21734154706354</v>
+        <v>87.21734154706357</v>
       </c>
       <c r="N19" t="n">
-        <v>90.33670193859018</v>
+        <v>90.3367019385902</v>
       </c>
       <c r="O19" t="n">
-        <v>67.94905398704407</v>
+        <v>67.9490539870441</v>
       </c>
       <c r="P19" t="n">
-        <v>34.68510233429608</v>
+        <v>34.68510233429609</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>44.02584439474497</v>
+        <v>44.02584439474523</v>
       </c>
       <c r="K20" t="n">
         <v>189.4950380547972</v>
       </c>
       <c r="L20" t="n">
-        <v>287.5793693106593</v>
+        <v>287.5793693106594</v>
       </c>
       <c r="M20" t="n">
         <v>335.3534123623372</v>
@@ -36139,7 +36139,7 @@
         <v>184.9283056026838</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.9144644401588</v>
+        <v>60.91446444015882</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>34.08214301315203</v>
       </c>
       <c r="K21" t="n">
         <v>186.1362687437328</v>
@@ -36206,19 +36206,19 @@
         <v>311.7474334260178</v>
       </c>
       <c r="M21" t="n">
-        <v>417.1280800000796</v>
+        <v>417.1280800000797</v>
       </c>
       <c r="N21" t="n">
-        <v>180.8082825325026</v>
+        <v>426.2546672576181</v>
       </c>
       <c r="O21" t="n">
-        <v>337.6082636314077</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>254.367929898444</v>
+        <v>194.4911908844325</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>117.9564749071518</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>12.66366664770517</v>
+        <v>12.66366664770518</v>
       </c>
       <c r="L22" t="n">
         <v>72.57242137783692</v>
       </c>
       <c r="M22" t="n">
-        <v>87.21734154706354</v>
+        <v>87.21734154706357</v>
       </c>
       <c r="N22" t="n">
-        <v>90.33670193859018</v>
+        <v>90.3367019385902</v>
       </c>
       <c r="O22" t="n">
-        <v>67.94905398704407</v>
+        <v>67.9490539870441</v>
       </c>
       <c r="P22" t="n">
-        <v>34.68510233429608</v>
+        <v>34.68510233429609</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>44.02584439474521</v>
+        <v>44.02584439474523</v>
       </c>
       <c r="K23" t="n">
         <v>189.4950380547972</v>
       </c>
       <c r="L23" t="n">
-        <v>287.5793693106593</v>
+        <v>287.5793693106594</v>
       </c>
       <c r="M23" t="n">
         <v>335.3534123623372</v>
@@ -36376,7 +36376,7 @@
         <v>184.9283056026838</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.9144644401588</v>
+        <v>60.91446444015882</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>34.08214301315203</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>186.1362687437328</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>311.7474334260178</v>
       </c>
       <c r="M24" t="n">
-        <v>274.0110072531044</v>
+        <v>417.1280800000797</v>
       </c>
       <c r="N24" t="n">
-        <v>426.254667257618</v>
+        <v>366.9445512762356</v>
       </c>
       <c r="O24" t="n">
         <v>337.6082636314077</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>254.367929898444</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.9564749071518</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>12.66366664770517</v>
+        <v>12.66366664770518</v>
       </c>
       <c r="L25" t="n">
         <v>72.57242137783692</v>
       </c>
       <c r="M25" t="n">
-        <v>87.21734154706354</v>
+        <v>87.21734154706357</v>
       </c>
       <c r="N25" t="n">
-        <v>90.33670193859018</v>
+        <v>90.3367019385902</v>
       </c>
       <c r="O25" t="n">
-        <v>67.94905398704407</v>
+        <v>67.9490539870441</v>
       </c>
       <c r="P25" t="n">
-        <v>34.68510233429608</v>
+        <v>34.68510233429609</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.1155978370193</v>
+        <v>186.1155978370194</v>
       </c>
       <c r="K26" t="n">
-        <v>331.5847914970709</v>
+        <v>331.5847914970713</v>
       </c>
       <c r="L26" t="n">
-        <v>429.6691227529334</v>
+        <v>429.6691227529335</v>
       </c>
       <c r="M26" t="n">
         <v>477.4431658046113</v>
@@ -36616,7 +36616,7 @@
         <v>203.0042178824329</v>
       </c>
       <c r="R26" t="n">
-        <v>33.31101445709677</v>
+        <v>33.31101445709679</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>311.7474334260178</v>
       </c>
       <c r="M27" t="n">
-        <v>417.1280800000796</v>
+        <v>417.1280800000797</v>
       </c>
       <c r="N27" t="n">
-        <v>443.7224938252831</v>
+        <v>443.7224938252832</v>
       </c>
       <c r="O27" t="n">
         <v>337.6082636314077</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>69.9477723560283</v>
       </c>
       <c r="K28" t="n">
-        <v>154.7534200899793</v>
+        <v>12.66366664770518</v>
       </c>
       <c r="L28" t="n">
-        <v>214.662174820111</v>
+        <v>72.57242137783692</v>
       </c>
       <c r="M28" t="n">
-        <v>87.21734154706354</v>
+        <v>87.21734154706357</v>
       </c>
       <c r="N28" t="n">
-        <v>184.5347493911829</v>
+        <v>232.4264553808643</v>
       </c>
       <c r="O28" t="n">
-        <v>210.0388074293182</v>
+        <v>152.1844326055459</v>
       </c>
       <c r="P28" t="n">
-        <v>34.68510233429608</v>
+        <v>176.7748557765702</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>82.10464992033639</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>331.5847914970713</v>
       </c>
       <c r="L29" t="n">
-        <v>429.6691227529334</v>
+        <v>429.6691227529335</v>
       </c>
       <c r="M29" t="n">
         <v>477.4431658046113</v>
@@ -36853,7 +36853,7 @@
         <v>203.0042178824329</v>
       </c>
       <c r="R29" t="n">
-        <v>33.31101445709677</v>
+        <v>33.31101445709676</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>311.7474334260178</v>
       </c>
       <c r="M30" t="n">
-        <v>417.1280800000796</v>
+        <v>417.1280800000797</v>
       </c>
       <c r="N30" t="n">
-        <v>443.7224938252831</v>
+        <v>443.7224938252832</v>
       </c>
       <c r="O30" t="n">
         <v>337.6082636314077</v>
@@ -36990,22 +36990,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>12.66366664770517</v>
+        <v>106.8617141002983</v>
       </c>
       <c r="L31" t="n">
         <v>214.662174820111</v>
       </c>
       <c r="M31" t="n">
-        <v>87.21734154706354</v>
+        <v>87.21734154706357</v>
       </c>
       <c r="N31" t="n">
-        <v>232.4264553808643</v>
+        <v>90.3367019385902</v>
       </c>
       <c r="O31" t="n">
         <v>210.0388074293182</v>
       </c>
       <c r="P31" t="n">
-        <v>128.8831497868887</v>
+        <v>176.7748557765702</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.1155978370193</v>
+        <v>186.1155978370194</v>
       </c>
       <c r="K32" t="n">
-        <v>331.5847914970713</v>
+        <v>331.5847914970714</v>
       </c>
       <c r="L32" t="n">
-        <v>429.6691227529334</v>
+        <v>429.6691227529335</v>
       </c>
       <c r="M32" t="n">
         <v>477.4431658046113</v>
@@ -37081,16 +37081,16 @@
         <v>467.1956204842265</v>
       </c>
       <c r="O32" t="n">
-        <v>402.4837104671248</v>
+        <v>402.4837104671249</v>
       </c>
       <c r="P32" t="n">
-        <v>327.0180590449574</v>
+        <v>327.018059044958</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.0042178824329</v>
+        <v>203.004217882433</v>
       </c>
       <c r="R32" t="n">
-        <v>33.31101445709677</v>
+        <v>33.31101445709682</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>311.7474334260178</v>
       </c>
       <c r="M33" t="n">
-        <v>417.1280800000796</v>
+        <v>417.1280800000797</v>
       </c>
       <c r="N33" t="n">
-        <v>443.7224938252831</v>
+        <v>443.7224938252832</v>
       </c>
       <c r="O33" t="n">
         <v>337.6082636314077</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.94777235602828</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>12.66366664770517</v>
+        <v>12.66366664770518</v>
       </c>
       <c r="L34" t="n">
-        <v>214.662174820111</v>
+        <v>72.57242137783692</v>
       </c>
       <c r="M34" t="n">
         <v>229.3070949893377</v>
       </c>
       <c r="N34" t="n">
-        <v>90.33670193859018</v>
+        <v>102.4300994708455</v>
       </c>
       <c r="O34" t="n">
-        <v>67.94905398704407</v>
+        <v>210.0388074293182</v>
       </c>
       <c r="P34" t="n">
         <v>176.7748557765702</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.25027509656447</v>
+        <v>82.10464992033641</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>44.02584439474521</v>
+        <v>44.02584439474523</v>
       </c>
       <c r="K35" t="n">
         <v>189.4950380547972</v>
       </c>
       <c r="L35" t="n">
-        <v>287.5793693106593</v>
+        <v>287.5793693106594</v>
       </c>
       <c r="M35" t="n">
         <v>335.3534123623372</v>
       </c>
       <c r="N35" t="n">
-        <v>325.1058670419526</v>
+        <v>325.1058670419524</v>
       </c>
       <c r="O35" t="n">
         <v>260.3939570248507</v>
@@ -37324,7 +37324,7 @@
         <v>184.9283056026838</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.9144644401588</v>
+        <v>60.91446444015882</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>186.1362687437328</v>
       </c>
       <c r="L36" t="n">
-        <v>251.8706944120064</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>417.1280800000796</v>
+        <v>417.1280800000797</v>
       </c>
       <c r="N36" t="n">
         <v>426.2546672576181</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.8706944120062</v>
       </c>
       <c r="P36" t="n">
         <v>254.367929898444</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>12.66366664770517</v>
+        <v>12.66366664770518</v>
       </c>
       <c r="L37" t="n">
         <v>72.57242137783692</v>
       </c>
       <c r="M37" t="n">
-        <v>87.21734154706354</v>
+        <v>87.21734154706357</v>
       </c>
       <c r="N37" t="n">
-        <v>90.33670193859018</v>
+        <v>90.3367019385902</v>
       </c>
       <c r="O37" t="n">
-        <v>67.94905398704407</v>
+        <v>67.9490539870441</v>
       </c>
       <c r="P37" t="n">
-        <v>34.68510233429608</v>
+        <v>34.68510233429609</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>44.02584439474521</v>
+        <v>44.02584439474523</v>
       </c>
       <c r="K38" t="n">
         <v>189.4950380547972</v>
       </c>
       <c r="L38" t="n">
-        <v>287.5793693106593</v>
+        <v>287.5793693106594</v>
       </c>
       <c r="M38" t="n">
         <v>335.3534123623372</v>
@@ -37561,7 +37561,7 @@
         <v>184.9283056026838</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.9144644401588</v>
+        <v>60.91446444015882</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>77.10133900990967</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>311.7474334260178</v>
       </c>
       <c r="M39" t="n">
-        <v>417.1280800000796</v>
+        <v>417.1280800000797</v>
       </c>
       <c r="N39" t="n">
         <v>426.2546672576181</v>
       </c>
       <c r="O39" t="n">
-        <v>337.6082636314077</v>
+        <v>278.2981476500252</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>254.367929898444</v>
       </c>
       <c r="Q39" t="n">
-        <v>117.9564749071518</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.66366664770517</v>
+        <v>12.66366664770518</v>
       </c>
       <c r="L40" t="n">
         <v>72.57242137783692</v>
       </c>
       <c r="M40" t="n">
-        <v>87.21734154706354</v>
+        <v>87.21734154706357</v>
       </c>
       <c r="N40" t="n">
-        <v>90.33670193859018</v>
+        <v>90.3367019385902</v>
       </c>
       <c r="O40" t="n">
-        <v>67.94905398704407</v>
+        <v>67.9490539870441</v>
       </c>
       <c r="P40" t="n">
-        <v>34.68510233429608</v>
+        <v>34.68510233429609</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>44.02584439474521</v>
+        <v>44.02584439474523</v>
       </c>
       <c r="K41" t="n">
         <v>189.4950380547972</v>
       </c>
       <c r="L41" t="n">
-        <v>287.5793693106593</v>
+        <v>287.5793693106594</v>
       </c>
       <c r="M41" t="n">
-        <v>335.3534123623372</v>
+        <v>362.3922000927977</v>
       </c>
       <c r="N41" t="n">
-        <v>352.1446547724141</v>
+        <v>325.1058670419524</v>
       </c>
       <c r="O41" t="n">
         <v>260.3939570248507</v>
@@ -37798,7 +37798,7 @@
         <v>184.9283056026838</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.9144644401588</v>
+        <v>60.91446444015882</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.08214301315203</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>186.1362687437328</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>311.7474334260178</v>
       </c>
       <c r="M42" t="n">
-        <v>39.85319165319445</v>
+        <v>417.1280800000797</v>
       </c>
       <c r="N42" t="n">
-        <v>433.0833406895459</v>
+        <v>433.0833406895457</v>
       </c>
       <c r="O42" t="n">
         <v>337.6082636314077</v>
       </c>
       <c r="P42" t="n">
-        <v>254.367929898444</v>
+        <v>97.31145330844278</v>
       </c>
       <c r="Q42" t="n">
         <v>117.9564749071518</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.66366664770517</v>
+        <v>12.66366664770518</v>
       </c>
       <c r="L43" t="n">
         <v>72.57242137783692</v>
       </c>
       <c r="M43" t="n">
-        <v>87.21734154706354</v>
+        <v>87.21734154706357</v>
       </c>
       <c r="N43" t="n">
-        <v>90.33670193859018</v>
+        <v>90.3367019385902</v>
       </c>
       <c r="O43" t="n">
-        <v>67.94905398704407</v>
+        <v>67.9490539870441</v>
       </c>
       <c r="P43" t="n">
-        <v>34.68510233429608</v>
+        <v>34.68510233429609</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>44.02584439474521</v>
+        <v>44.02584439474523</v>
       </c>
       <c r="K44" t="n">
         <v>189.4950380547972</v>
       </c>
       <c r="L44" t="n">
-        <v>287.5793693106593</v>
+        <v>287.5793693106594</v>
       </c>
       <c r="M44" t="n">
-        <v>362.3922000927989</v>
+        <v>335.3534123623372</v>
       </c>
       <c r="N44" t="n">
         <v>325.1058670419524</v>
@@ -38035,10 +38035,10 @@
         <v>184.9283056026838</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.9144644401588</v>
+        <v>60.91446444015882</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>27.03878773046047</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>186.1362687437328</v>
       </c>
       <c r="L45" t="n">
-        <v>311.7474334260178</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>417.1280800000796</v>
+        <v>417.1280800000797</v>
       </c>
       <c r="N45" t="n">
-        <v>433.0833406895459</v>
+        <v>433.0833406895457</v>
       </c>
       <c r="O45" t="n">
-        <v>78.28985019167419</v>
+        <v>272.0808087105394</v>
       </c>
       <c r="P45" t="n">
         <v>254.367929898444</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>117.9564749071518</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.66366664770517</v>
+        <v>12.66366664770518</v>
       </c>
       <c r="L46" t="n">
         <v>72.57242137783692</v>
       </c>
       <c r="M46" t="n">
-        <v>87.21734154706354</v>
+        <v>87.21734154706357</v>
       </c>
       <c r="N46" t="n">
-        <v>90.33670193859018</v>
+        <v>90.3367019385902</v>
       </c>
       <c r="O46" t="n">
-        <v>67.94905398704407</v>
+        <v>67.9490539870441</v>
       </c>
       <c r="P46" t="n">
-        <v>34.68510233429608</v>
+        <v>34.68510233429609</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
